--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="1220" windowWidth="31520" windowHeight="19140" tabRatio="616" activeTab="1"/>
+    <workbookView xWindow="3180" yWindow="1040" windowWidth="31520" windowHeight="19140" tabRatio="616"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="211">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -382,12 +382,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>dragonHpRecoverTerrainAddPercent</t>
-  </si>
-  <si>
-    <t>龙在相应地形下的hp回复加成比例</t>
-  </si>
-  <si>
     <t>resources:wood:1500,resources:stone:1500,resources:iron:1500,resources:food:300,resources:coin:300,resources:gem:20</t>
   </si>
   <si>
@@ -721,6 +715,70 @@
   </si>
   <si>
     <t>玩家初始小屋数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceCollectPerSecond</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinCollectPerSecond</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通资源每秒采集量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>银币每秒采集量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>desertAttackAddPercent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceFieldDefenceAddPercent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠攻击力加成百分比</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪地防御力加成百分比</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>grassLandWoodAddPercent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>grassLandStoneAddPercent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>grassLandIronAddPercent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>grassLandFoodAddPercent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地木材加成百分比</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地石材加成百分比</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地铁矿加成百分比</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地粮食加成百分比</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -870,7 +928,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="282">
+  <cellStyleXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -885,6 +943,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1188,7 +1256,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="282">
+  <cellStyles count="292">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1332,6 +1400,11 @@
     <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1468,6 +1541,11 @@
     <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1917,17 +1995,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="32.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="1" customWidth="1"/>
     <col min="4" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -1981,7 +2059,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -1992,7 +2070,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
@@ -2091,7 +2169,7 @@
         <v>52</v>
       </c>
       <c r="B15" s="1">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>51</v>
@@ -2168,7 +2246,7 @@
         <v>65</v>
       </c>
       <c r="B22" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>66</v>
@@ -2245,7 +2323,7 @@
         <v>84</v>
       </c>
       <c r="B29" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>85</v>
@@ -2253,24 +2331,24 @@
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="B30" s="1">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B31" s="1">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -2278,10 +2356,87 @@
         <v>195</v>
       </c>
       <c r="B32" s="1">
+        <v>100</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="1">
+        <v>50</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" s="1">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" s="1">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="20" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B37" s="1">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="20" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" s="1">
         <v>3</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>196</v>
+      <c r="C38" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="20" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" s="1">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2300,7 +2455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -2325,7 +2480,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>75</v>
@@ -2336,7 +2491,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>79</v>
@@ -2347,7 +2502,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>77</v>
@@ -2358,7 +2513,7 @@
         <v>49</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>78</v>
@@ -2369,7 +2524,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>76</v>
@@ -2535,7 +2690,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -2549,7 +2704,7 @@
         <v>311</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -2563,7 +2718,7 @@
         <v>479</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -2577,7 +2732,7 @@
         <v>655</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -2591,7 +2746,7 @@
         <v>839</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -2605,7 +2760,7 @@
         <v>1031</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -2619,7 +2774,7 @@
         <v>1231</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -2633,7 +2788,7 @@
         <v>1439</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -2647,7 +2802,7 @@
         <v>1655</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -2661,7 +2816,7 @@
         <v>1879</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -2675,7 +2830,7 @@
         <v>2111</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -2689,7 +2844,7 @@
         <v>2351</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -2703,7 +2858,7 @@
         <v>2612</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -2717,7 +2872,7 @@
         <v>2903</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -2731,7 +2886,7 @@
         <v>3225</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -2745,7 +2900,7 @@
         <v>3584</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -2759,7 +2914,7 @@
         <v>3982</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -2773,7 +2928,7 @@
         <v>4424</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -2787,7 +2942,7 @@
         <v>4916</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -2801,7 +2956,7 @@
         <v>5462</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -2815,7 +2970,7 @@
         <v>6069</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -2829,7 +2984,7 @@
         <v>6743</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -2843,7 +2998,7 @@
         <v>7492</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -2857,7 +3012,7 @@
         <v>8325</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -2871,7 +3026,7 @@
         <v>9250</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -2885,7 +3040,7 @@
         <v>10277</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -2899,7 +3054,7 @@
         <v>11419</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -2913,7 +3068,7 @@
         <v>12688</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -2927,7 +3082,7 @@
         <v>14098</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -2941,7 +3096,7 @@
         <v>15664</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -2955,7 +3110,7 @@
         <v>17405</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -2969,7 +3124,7 @@
         <v>19339</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -2983,7 +3138,7 @@
         <v>21488</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -2997,7 +3152,7 @@
         <v>23875</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -3011,7 +3166,7 @@
         <v>26528</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -3025,7 +3180,7 @@
         <v>29475</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -3039,7 +3194,7 @@
         <v>32751</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -3053,7 +3208,7 @@
         <v>36389</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3067,7 +3222,7 @@
         <v>40433</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3081,7 +3236,7 @@
         <v>44925</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3095,7 +3250,7 @@
         <v>49917</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3109,7 +3264,7 @@
         <v>55463</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3123,7 +3278,7 @@
         <v>61626</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3137,7 +3292,7 @@
         <v>68473</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3151,7 +3306,7 @@
         <v>76081</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3165,7 +3320,7 @@
         <v>84535</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3179,7 +3334,7 @@
         <v>93928</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3193,7 +3348,7 @@
         <v>104364</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3207,7 +3362,7 @@
         <v>115960</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3221,7 +3376,7 @@
         <v>128844</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3235,7 +3390,7 @@
         <v>143160</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3249,7 +3404,7 @@
         <v>159067</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3263,7 +3418,7 @@
         <v>176741</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3277,7 +3432,7 @@
         <v>196379</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3291,7 +3446,7 @@
         <v>218199</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -3305,7 +3460,7 @@
         <v>242443</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -3319,7 +3474,7 @@
         <v>269382</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -3333,7 +3488,7 @@
         <v>299313</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -3347,7 +3502,7 @@
         <v>332570</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -3361,7 +3516,7 @@
         <v>369522</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -3375,7 +3530,7 @@
         <v>410580</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -3389,7 +3544,7 @@
         <v>456200</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -3403,7 +3558,7 @@
         <v>506889</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -3417,7 +3572,7 @@
         <v>563210</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -3431,7 +3586,7 @@
         <v>625789</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -3445,7 +3600,7 @@
         <v>695321</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -3459,7 +3614,7 @@
         <v>772579</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -3473,7 +3628,7 @@
         <v>858421</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -3487,7 +3642,7 @@
         <v>953801</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -3501,7 +3656,7 @@
         <v>1059779</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -3515,7 +3670,7 @@
         <v>1177532</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -3529,7 +3684,7 @@
         <v>1308369</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -3543,7 +3698,7 @@
         <v>1453743</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -3557,7 +3712,7 @@
         <v>1615270</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -3571,7 +3726,7 @@
         <v>1794745</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -3585,7 +3740,7 @@
         <v>1994161</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -3599,7 +3754,7 @@
         <v>2215735</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -3613,7 +3768,7 @@
         <v>2461927</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -3627,7 +3782,7 @@
         <v>2735475</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -3641,7 +3796,7 @@
         <v>3039416</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -3655,7 +3810,7 @@
         <v>3377129</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -3669,7 +3824,7 @@
         <v>3752366</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -3683,7 +3838,7 @@
         <v>4169295</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -3697,7 +3852,7 @@
         <v>4632550</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -3711,7 +3866,7 @@
         <v>5147278</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -3725,7 +3880,7 @@
         <v>5719198</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -3739,7 +3894,7 @@
         <v>6354665</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -3753,7 +3908,7 @@
         <v>7060738</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -3767,7 +3922,7 @@
         <v>7845265</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -3781,7 +3936,7 @@
         <v>8716961</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -3795,7 +3950,7 @@
         <v>9685512</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -3809,7 +3964,7 @@
         <v>10761680</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -3823,7 +3978,7 @@
         <v>11957423</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -3837,7 +3992,7 @@
         <v>13286025</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -3851,7 +4006,7 @@
         <v>14762250</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -3865,7 +4020,7 @@
         <v>16402500</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -3879,7 +4034,7 @@
         <v>18225000</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -3893,7 +4048,7 @@
         <v>20250000</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -3907,7 +4062,7 @@
         <v>24500000</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -3921,7 +4076,7 @@
         <v>32500000</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="1040" windowWidth="31520" windowHeight="19140" tabRatio="616"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="217">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -779,6 +779,30 @@
   </si>
   <si>
     <t>草地粮食加成百分比</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchServerGemUsed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁移服务器消耗宝石数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchServerLimitDays</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁移服务器限制天数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchServerFreeKeepLevel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费迁移服务器玩家城堡等级</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1995,10 +2019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2437,6 +2461,39 @@
       </c>
       <c r="C39" s="1" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="20" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="20" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" s="1">
+        <v>30</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="20" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B42" s="1">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="1040" windowWidth="31520" windowHeight="19140" tabRatio="616"/>
@@ -2021,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2336,7 +2336,7 @@
         <v>83</v>
       </c>
       <c r="B28" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>82</v>

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -4,24 +4,34 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="1040" windowWidth="31520" windowHeight="19140" tabRatio="616"/>
+    <workbookView xWindow="4140" yWindow="1020" windowWidth="25600" windowHeight="16060" tabRatio="616" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
     <sheet name="stringInit" sheetId="26" r:id="rId2"/>
     <sheet name="resources" sheetId="2" r:id="rId3"/>
     <sheet name="playerLevel" sheetId="21" r:id="rId4"/>
+    <sheet name="dailyTasks" sheetId="27" r:id="rId5"/>
+    <sheet name="dailyTaskRewards" sheetId="28" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
@@ -36,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="234">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -226,22 +236,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>empireRiseDailyTaskRewards</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>conquerorDailyTaskRewards</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>brotherClubDailyTaskRewards</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>growUpDailyTaskRewards</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>新手冲级奖励时间</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -342,22 +336,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>超凡之路日常奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>征服者日常奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>兄弟会日常奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>帝国崛起日常奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>unlockPlayerSecondMarchQueue</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -397,303 +375,10 @@
     <t>resources:wood:7500,resources:stone:7500,resources:iron:7500,resources:food:1800,resources:coin:1800,resources:gem:20</t>
   </si>
   <si>
-    <t>resources:wood:9000,resources:stone:9000,resources:iron:9000,resources:food:2200,resources:coin:2200,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:10500,resources:stone:10500,resources:iron:10500,resources:food:2600,resources:coin:2600,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:12100,resources:stone:12100,resources:iron:12100,resources:food:3000,resources:coin:3000,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:13600,resources:stone:13600,resources:iron:13600,resources:food:3400,resources:coin:3400,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:15100,resources:stone:15100,resources:iron:15100,resources:food:3700,resources:coin:3700,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:16600,resources:stone:16600,resources:iron:16600,resources:food:4100,resources:coin:4100,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:18100,resources:stone:18100,resources:iron:18100,resources:food:4500,resources:coin:4500,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:19600,resources:stone:19600,resources:iron:19600,resources:food:4900,resources:coin:4900,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:21100,resources:stone:21100,resources:iron:21100,resources:food:5200,resources:coin:5200,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:22600,resources:stone:22600,resources:iron:22600,resources:food:5600,resources:coin:5600,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:24100,resources:stone:24100,resources:iron:24100,resources:food:6000,resources:coin:6000,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:25600,resources:stone:25600,resources:iron:25600,resources:food:6400,resources:coin:6400,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:27200,resources:stone:27200,resources:iron:27200,resources:food:6800,resources:coin:6800,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:28700,resources:stone:28700,resources:iron:28700,resources:food:7100,resources:coin:7100,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:30200,resources:stone:30200,resources:iron:30200,resources:food:7500,resources:coin:7500,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:31800,resources:stone:31800,resources:iron:31800,resources:food:7900,resources:coin:7900,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:33300,resources:stone:33300,resources:iron:33300,resources:food:8300,resources:coin:8300,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:34800,resources:stone:34800,resources:iron:34800,resources:food:8700,resources:coin:8700,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:36400,resources:stone:36400,resources:iron:36400,resources:food:9100,resources:coin:9100,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:37900,resources:stone:37900,resources:iron:37900,resources:food:9400,resources:coin:9400,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:39500,resources:stone:39500,resources:iron:39500,resources:food:9800,resources:coin:9800,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:41000,resources:stone:41000,resources:iron:41000,resources:food:10200,resources:coin:10200,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:42600,resources:stone:42600,resources:iron:42600,resources:food:10600,resources:coin:10600,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:44200,resources:stone:44200,resources:iron:44200,resources:food:11000,resources:coin:11000,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:45700,resources:stone:45700,resources:iron:45700,resources:food:11400,resources:coin:11400,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:47300,resources:stone:47300,resources:iron:47300,resources:food:11800,resources:coin:11800,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:48900,resources:stone:48900,resources:iron:48900,resources:food:12200,resources:coin:12200,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:50500,resources:stone:50500,resources:iron:50500,resources:food:12600,resources:coin:12600,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:52100,resources:stone:52100,resources:iron:52100,resources:food:13000,resources:coin:13000,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:53800,resources:stone:53800,resources:iron:53800,resources:food:13400,resources:coin:13400,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:55400,resources:stone:55400,resources:iron:55400,resources:food:13800,resources:coin:13800,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:57100,resources:stone:57100,resources:iron:57100,resources:food:14200,resources:coin:14200,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:58800,resources:stone:58800,resources:iron:58800,resources:food:14700,resources:coin:14700,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:60500,resources:stone:60500,resources:iron:60500,resources:food:15100,resources:coin:15100,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:62200,resources:stone:62200,resources:iron:62200,resources:food:15500,resources:coin:15500,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:63900,resources:stone:63900,resources:iron:63900,resources:food:15900,resources:coin:15900,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:65700,resources:stone:65700,resources:iron:65700,resources:food:16400,resources:coin:16400,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:67500,resources:stone:67500,resources:iron:67500,resources:food:16800,resources:coin:16800,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:69400,resources:stone:69400,resources:iron:69400,resources:food:17300,resources:coin:17300,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:71300,resources:stone:71300,resources:iron:71300,resources:food:17800,resources:coin:17800,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:73200,resources:stone:73200,resources:iron:73200,resources:food:18300,resources:coin:18300,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:75100,resources:stone:75100,resources:iron:75100,resources:food:18700,resources:coin:18700,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:77200,resources:stone:77200,resources:iron:77200,resources:food:19300,resources:coin:19300,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:79200,resources:stone:79200,resources:iron:79200,resources:food:19800,resources:coin:19800,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:81400,resources:stone:81400,resources:iron:81400,resources:food:20300,resources:coin:20300,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:83600,resources:stone:83600,resources:iron:83600,resources:food:20900,resources:coin:20900,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:85900,resources:stone:85900,resources:iron:85900,resources:food:21400,resources:coin:21400,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:88300,resources:stone:88300,resources:iron:88300,resources:food:22000,resources:coin:22000,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:90800,resources:stone:90800,resources:iron:90800,resources:food:22700,resources:coin:22700,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:93400,resources:stone:93400,resources:iron:93400,resources:food:23300,resources:coin:23300,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:96100,resources:stone:96100,resources:iron:96100,resources:food:24000,resources:coin:24000,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:98900,resources:stone:98900,resources:iron:98900,resources:food:24700,resources:coin:24700,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:101900,resources:stone:101900,resources:iron:101900,resources:food:25400,resources:coin:25400,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:105100,resources:stone:105100,resources:iron:105100,resources:food:26200,resources:coin:26200,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:108400,resources:stone:108400,resources:iron:108400,resources:food:27100,resources:coin:27100,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:112000,resources:stone:112000,resources:iron:112000,resources:food:28000,resources:coin:28000,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:115800,resources:stone:115800,resources:iron:115800,resources:food:28900,resources:coin:28900,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:119800,resources:stone:119800,resources:iron:119800,resources:food:29900,resources:coin:29900,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:124100,resources:stone:124100,resources:iron:124100,resources:food:31000,resources:coin:31000,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:128700,resources:stone:128700,resources:iron:128700,resources:food:32100,resources:coin:32100,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:133700,resources:stone:133700,resources:iron:133700,resources:food:33400,resources:coin:33400,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:139100,resources:stone:139100,resources:iron:139100,resources:food:34700,resources:coin:34700,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:144900,resources:stone:144900,resources:iron:144900,resources:food:36200,resources:coin:36200,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:151100,resources:stone:151100,resources:iron:151100,resources:food:37700,resources:coin:37700,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:157900,resources:stone:157900,resources:iron:157900,resources:food:39400,resources:coin:39400,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:165300,resources:stone:165300,resources:iron:165300,resources:food:41300,resources:coin:41300,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:173400,resources:stone:173400,resources:iron:173400,resources:food:43300,resources:coin:43300,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:182100,resources:stone:182100,resources:iron:182100,resources:food:45500,resources:coin:45500,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:191700,resources:stone:191700,resources:iron:191700,resources:food:47900,resources:coin:47900,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:202200,resources:stone:202200,resources:iron:202200,resources:food:50500,resources:coin:50500,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:213700,resources:stone:213700,resources:iron:213700,resources:food:53400,resources:coin:53400,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:226200,resources:stone:226200,resources:iron:226200,resources:food:56500,resources:coin:56500,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:240000,resources:stone:240000,resources:iron:240000,resources:food:60000,resources:coin:60000,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:255200,resources:stone:255200,resources:iron:255200,resources:food:63800,resources:coin:63800,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:271900,resources:stone:271900,resources:iron:271900,resources:food:67900,resources:coin:67900,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:290300,resources:stone:290300,resources:iron:290300,resources:food:72500,resources:coin:72500,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:310600,resources:stone:310600,resources:iron:310600,resources:food:77600,resources:coin:77600,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:332900,resources:stone:332900,resources:iron:332900,resources:food:83200,resources:coin:83200,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:357600,resources:stone:357600,resources:iron:357600,resources:food:89400,resources:coin:89400,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:384800,resources:stone:384800,resources:iron:384800,resources:food:96200,resources:coin:96200,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:414900,resources:stone:414900,resources:iron:414900,resources:food:103700,resources:coin:103700,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:448200,resources:stone:448200,resources:iron:448200,resources:food:112000,resources:coin:112000,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:485000,resources:stone:485000,resources:iron:485000,resources:food:121200,resources:coin:121200,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:525700,resources:stone:525700,resources:iron:525700,resources:food:131400,resources:coin:131400,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:570800,resources:stone:570800,resources:iron:570800,resources:food:142700,resources:coin:142700,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:620700,resources:stone:620700,resources:iron:620700,resources:food:155100,resources:coin:155100,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:676000,resources:stone:676000,resources:iron:676000,resources:food:169000,resources:coin:169000,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:737300,resources:stone:737300,resources:iron:737300,resources:food:184300,resources:coin:184300,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:805300,resources:stone:805300,resources:iron:805300,resources:food:201300,resources:coin:201300,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:880600,resources:stone:880600,resources:iron:880600,resources:food:220100,resources:coin:220100,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:964100,resources:stone:964100,resources:iron:964100,resources:food:241000,resources:coin:241000,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1056700,resources:stone:1056700,resources:iron:1056700,resources:food:264100,resources:coin:264100,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1159400,resources:stone:1159400,resources:iron:1159400,resources:food:289800,resources:coin:289800,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:2273400,resources:stone:2273400,resources:iron:2273400,resources:food:568300,resources:coin:568300,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:4149900,resources:stone:4149900,resources:iron:4149900,resources:food:1037400,resources:coin:1037400,resources:gem:500</t>
-  </si>
-  <si>
-    <t>special:chest_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>resource:casinoTokenClass_2:1,special:vipActive_3:1,special:stamina_2:1,special:moveTheCity:1,special:dragonExp_1:1,special:heroBlood_1:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resource:coinClass_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>activePlayerNeedHouses</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -702,14 +387,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resource:coinClass_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>eachHouseInitCount</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -803,6 +480,403 @@
   </si>
   <si>
     <t>免费迁移服务器玩家城堡等级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:wood:700,resources:stone:700,resources:iron:700,resources:food:100,resources:coin:100,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:2200,resources:stone:2200,resources:iron:2200,resources:food:500,resources:coin:500,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:3700,resources:stone:3700,resources:iron:3700,resources:food:900,resources:coin:900,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:5200,resources:stone:5200,resources:iron:5200,resources:food:1300,resources:coin:1300,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:6800,resources:stone:6800,resources:iron:6800,resources:food:1700,resources:coin:1700,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:8300,resources:stone:8300,resources:iron:8300,resources:food:2000,resources:coin:2000,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:9000,resources:stone:9000,resources:iron:9000,resources:food:2200,resources:coin:2200,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:9800,resources:stone:9800,resources:iron:9800,resources:food:2400,resources:coin:2400,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:10500,resources:stone:10500,resources:iron:10500,resources:food:2600,resources:coin:2600,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:11300,resources:stone:11300,resources:iron:11300,resources:food:2800,resources:coin:2800,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:12000,resources:stone:12000,resources:iron:12000,resources:food:3000,resources:coin:3000,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:12800,resources:stone:12800,resources:iron:12800,resources:food:3200,resources:coin:3200,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:13600,resources:stone:13600,resources:iron:13600,resources:food:3400,resources:coin:3400,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:14300,resources:stone:14300,resources:iron:14300,resources:food:3500,resources:coin:3500,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:15100,resources:stone:15100,resources:iron:15100,resources:food:3700,resources:coin:3700,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:15900,resources:stone:15900,resources:iron:15900,resources:food:3900,resources:coin:3900,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:16600,resources:stone:16600,resources:iron:16600,resources:food:4100,resources:coin:4100,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:17400,resources:stone:17400,resources:iron:17400,resources:food:4300,resources:coin:4300,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:18200,resources:stone:18200,resources:iron:18200,resources:food:4500,resources:coin:4500,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:18900,resources:stone:18900,resources:iron:18900,resources:food:4700,resources:coin:4700,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:19700,resources:stone:19700,resources:iron:19700,resources:food:4900,resources:coin:4900,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:20500,resources:stone:20500,resources:iron:20500,resources:food:5100,resources:coin:5100,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:21300,resources:stone:21300,resources:iron:21300,resources:food:5300,resources:coin:5300,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:22100,resources:stone:22100,resources:iron:22100,resources:food:5500,resources:coin:5500,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:22800,resources:stone:22800,resources:iron:22800,resources:food:5700,resources:coin:5700,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:23600,resources:stone:23600,resources:iron:23600,resources:food:5900,resources:coin:5900,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:24400,resources:stone:24400,resources:iron:24400,resources:food:6100,resources:coin:6100,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:25200,resources:stone:25200,resources:iron:25200,resources:food:6300,resources:coin:6300,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:26000,resources:stone:26000,resources:iron:26000,resources:food:6500,resources:coin:6500,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:26900,resources:stone:26900,resources:iron:26900,resources:food:6700,resources:coin:6700,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:27700,resources:stone:27700,resources:iron:27700,resources:food:6900,resources:coin:6900,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:28500,resources:stone:28500,resources:iron:28500,resources:food:7100,resources:coin:7100,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:29400,resources:stone:29400,resources:iron:29400,resources:food:7300,resources:coin:7300,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:30200,resources:stone:30200,resources:iron:30200,resources:food:7500,resources:coin:7500,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:31100,resources:stone:31100,resources:iron:31100,resources:food:7700,resources:coin:7700,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:31900,resources:stone:31900,resources:iron:31900,resources:food:7900,resources:coin:7900,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:32800,resources:stone:32800,resources:iron:32800,resources:food:8200,resources:coin:8200,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:33700,resources:stone:33700,resources:iron:33700,resources:food:8400,resources:coin:8400,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:34700,resources:stone:34700,resources:iron:34700,resources:food:8600,resources:coin:8600,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:35600,resources:stone:35600,resources:iron:35600,resources:food:8900,resources:coin:8900,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:36600,resources:stone:36600,resources:iron:36600,resources:food:9100,resources:coin:9100,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:37500,resources:stone:37500,resources:iron:37500,resources:food:9300,resources:coin:9300,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:38600,resources:stone:38600,resources:iron:38600,resources:food:9600,resources:coin:9600,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:39600,resources:stone:39600,resources:iron:39600,resources:food:9900,resources:coin:9900,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:40700,resources:stone:40700,resources:iron:40700,resources:food:10100,resources:coin:10100,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:2074900,resources:stone:2074900,resources:iron:2074900,resources:food:518700,resources:coin:518700,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:41800,resources:stone:41800,resources:iron:41800,resources:food:10400,resources:coin:10400,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:42900,resources:stone:42900,resources:iron:42900,resources:food:10700,resources:coin:10700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:44100,resources:stone:44100,resources:iron:44100,resources:food:11000,resources:coin:11000,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:45400,resources:stone:45400,resources:iron:45400,resources:food:11300,resources:coin:11300,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:46700,resources:stone:46700,resources:iron:46700,resources:food:11600,resources:coin:11600,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:48000,resources:stone:48000,resources:iron:48000,resources:food:12000,resources:coin:12000,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:49400,resources:stone:49400,resources:iron:49400,resources:food:12300,resources:coin:12300,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:50900,resources:stone:50900,resources:iron:50900,resources:food:12700,resources:coin:12700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:52500,resources:stone:52500,resources:iron:52500,resources:food:13100,resources:coin:13100,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:54200,resources:stone:54200,resources:iron:54200,resources:food:13500,resources:coin:13500,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:56000,resources:stone:56000,resources:iron:56000,resources:food:14000,resources:coin:14000,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:57900,resources:stone:57900,resources:iron:57900,resources:food:14400,resources:coin:14400,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:59900,resources:stone:59900,resources:iron:59900,resources:food:14900,resources:coin:14900,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:62000,resources:stone:62000,resources:iron:62000,resources:food:15500,resources:coin:15500,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:64300,resources:stone:64300,resources:iron:64300,resources:food:16000,resources:coin:16000,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:66800,resources:stone:66800,resources:iron:66800,resources:food:16700,resources:coin:16700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:69500,resources:stone:69500,resources:iron:69500,resources:food:17300,resources:coin:17300,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:72400,resources:stone:72400,resources:iron:72400,resources:food:18100,resources:coin:18100,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:75500,resources:stone:75500,resources:iron:75500,resources:food:18800,resources:coin:18800,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:78900,resources:stone:78900,resources:iron:78900,resources:food:19700,resources:coin:19700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:82600,resources:stone:82600,resources:iron:82600,resources:food:20600,resources:coin:20600,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:86700,resources:stone:86700,resources:iron:86700,resources:food:21600,resources:coin:21600,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:91000,resources:stone:91000,resources:iron:91000,resources:food:22700,resources:coin:22700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:95800,resources:stone:95800,resources:iron:95800,resources:food:23900,resources:coin:23900,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:101100,resources:stone:101100,resources:iron:101100,resources:food:25200,resources:coin:25200,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:106800,resources:stone:106800,resources:iron:106800,resources:food:26700,resources:coin:26700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:113100,resources:stone:113100,resources:iron:113100,resources:food:28200,resources:coin:28200,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:120000,resources:stone:120000,resources:iron:120000,resources:food:30000,resources:coin:30000,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:127600,resources:stone:127600,resources:iron:127600,resources:food:31900,resources:coin:31900,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:135900,resources:stone:135900,resources:iron:135900,resources:food:33900,resources:coin:33900,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:145100,resources:stone:145100,resources:iron:145100,resources:food:36200,resources:coin:36200,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:155300,resources:stone:155300,resources:iron:155300,resources:food:38800,resources:coin:38800,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:166400,resources:stone:166400,resources:iron:166400,resources:food:41600,resources:coin:41600,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:178800,resources:stone:178800,resources:iron:178800,resources:food:44700,resources:coin:44700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:192400,resources:stone:192400,resources:iron:192400,resources:food:48100,resources:coin:48100,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:207400,resources:stone:207400,resources:iron:207400,resources:food:51800,resources:coin:51800,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:224100,resources:stone:224100,resources:iron:224100,resources:food:56000,resources:coin:56000,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:242500,resources:stone:242500,resources:iron:242500,resources:food:60600,resources:coin:60600,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:262800,resources:stone:262800,resources:iron:262800,resources:food:65700,resources:coin:65700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:285400,resources:stone:285400,resources:iron:285400,resources:food:71300,resources:coin:71300,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:310300,resources:stone:310300,resources:iron:310300,resources:food:77500,resources:coin:77500,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:338000,resources:stone:338000,resources:iron:338000,resources:food:84500,resources:coin:84500,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:368600,resources:stone:368600,resources:iron:368600,resources:food:92100,resources:coin:92100,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:402600,resources:stone:402600,resources:iron:402600,resources:food:100600,resources:coin:100600,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:440300,resources:stone:440300,resources:iron:440300,resources:food:110000,resources:coin:110000,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:482000,resources:stone:482000,resources:iron:482000,resources:food:120500,resources:coin:120500,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:528300,resources:stone:528300,resources:iron:528300,resources:food:132000,resources:coin:132000,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:579700,resources:stone:579700,resources:iron:579700,resources:food:144900,resources:coin:144900,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:1136700,resources:stone:1136700,resources:iron:1136700,resources:food:284100,resources:coin:284100,resources:gem:200</t>
+  </si>
+  <si>
+    <t>INT_index</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxCount</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_score</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgradeBuilding</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgradeProudctionTech</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgradeMilitaryTech</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>makeBuildingMaterial</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>makeTechnologyMaterial</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackShrine</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackCity</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackVillage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pve</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>donate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyAllianceItem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>helpSpeedup</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>helpDefence</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedupBuildingUpgrade</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedupSoldierRecruit</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>treatSoldiers</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>makeDragonEquipment</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyShopItem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_index</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_score</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_rewards</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:coinClass_3:1;resource:foodClass_3:1</t>
+  </si>
+  <si>
+    <t>resource:woodClass_3:2;resource:stoneClass_3:2;resource:ironClass_3:2;resource:foodClass_3:2</t>
+  </si>
+  <si>
+    <t>special:chest_2:1;special:sweepScroll:5</t>
+  </si>
+  <si>
+    <t>resource:gemClass_2:1;resource:stoneClass_4:1;resource:ironClass_4:1;resource:foodClass_4:1</t>
+  </si>
+  <si>
+    <t>special:chest_1:1;special:sweepScroll:2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -952,7 +1026,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="292">
+  <cellStyleXfs count="326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -967,6 +1041,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1280,7 +1388,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="292">
+  <cellStyles count="326">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1429,6 +1537,23 @@
     <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1570,6 +1695,23 @@
     <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2021,7 +2163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -2190,310 +2332,310 @@
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1">
         <v>96</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1">
         <v>200</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1">
         <v>360</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B21" s="5">
         <v>1440</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1">
         <v>500</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1">
         <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1">
         <v>100</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1">
         <v>10000</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1">
         <v>100</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1">
         <v>1500</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1">
         <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="B30" s="1">
         <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>193</v>
+        <v>86</v>
       </c>
       <c r="B31" s="1">
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="B32" s="1">
         <v>100</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>197</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="B33" s="1">
         <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>203</v>
+        <v>96</v>
       </c>
       <c r="B34" s="1">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>207</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="B35" s="1">
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>205</v>
+        <v>98</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>209</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>206</v>
+        <v>99</v>
       </c>
       <c r="B37" s="1">
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>210</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="B39" s="1">
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="B40" s="1">
         <v>1000</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>212</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="B41" s="1">
         <v>30</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>214</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="B42" s="1">
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>216</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2513,7 +2655,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2537,55 +2679,23 @@
         <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="B6" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2711,7 +2821,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2747,7 +2857,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -2761,7 +2871,7 @@
         <v>311</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -2775,7 +2885,7 @@
         <v>479</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -2789,7 +2899,7 @@
         <v>655</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -2803,7 +2913,7 @@
         <v>839</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -2817,7 +2927,7 @@
         <v>1031</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -2831,7 +2941,7 @@
         <v>1231</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -2845,7 +2955,7 @@
         <v>1439</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -2859,7 +2969,7 @@
         <v>1655</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -2873,7 +2983,7 @@
         <v>1879</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -2887,7 +2997,7 @@
         <v>2111</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -2901,7 +3011,7 @@
         <v>2351</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -2915,7 +3025,7 @@
         <v>2612</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -2929,7 +3039,7 @@
         <v>2903</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -2943,7 +3053,7 @@
         <v>3225</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -2957,7 +3067,7 @@
         <v>3584</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -2971,7 +3081,7 @@
         <v>3982</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -2985,7 +3095,7 @@
         <v>4424</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -2999,7 +3109,7 @@
         <v>4916</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3013,7 +3123,7 @@
         <v>5462</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3027,7 +3137,7 @@
         <v>6069</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3041,7 +3151,7 @@
         <v>6743</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3055,7 +3165,7 @@
         <v>7492</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3069,7 +3179,7 @@
         <v>8325</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3083,7 +3193,7 @@
         <v>9250</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3097,7 +3207,7 @@
         <v>10277</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -3111,7 +3221,7 @@
         <v>11419</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -3125,7 +3235,7 @@
         <v>12688</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -3139,7 +3249,7 @@
         <v>14098</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -3153,7 +3263,7 @@
         <v>15664</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -3167,7 +3277,7 @@
         <v>17405</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -3181,7 +3291,7 @@
         <v>19339</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -3195,7 +3305,7 @@
         <v>21488</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -3209,7 +3319,7 @@
         <v>23875</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -3223,7 +3333,7 @@
         <v>26528</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -3237,7 +3347,7 @@
         <v>29475</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -3251,7 +3361,7 @@
         <v>32751</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -3265,7 +3375,7 @@
         <v>36389</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3279,7 +3389,7 @@
         <v>40433</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3293,7 +3403,7 @@
         <v>44925</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3307,7 +3417,7 @@
         <v>49917</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3321,7 +3431,7 @@
         <v>55463</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3335,7 +3445,7 @@
         <v>61626</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3349,7 +3459,7 @@
         <v>68473</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3363,7 +3473,7 @@
         <v>76081</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3377,7 +3487,7 @@
         <v>84535</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3391,7 +3501,7 @@
         <v>93928</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3405,7 +3515,7 @@
         <v>104364</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3419,7 +3529,7 @@
         <v>115960</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3433,7 +3543,7 @@
         <v>128844</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3447,7 +3557,7 @@
         <v>143160</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3461,7 +3571,7 @@
         <v>159067</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3475,7 +3585,7 @@
         <v>176741</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3489,7 +3599,7 @@
         <v>196379</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3503,7 +3613,7 @@
         <v>218199</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -3517,7 +3627,7 @@
         <v>242443</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -3531,7 +3641,7 @@
         <v>269382</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -3545,7 +3655,7 @@
         <v>299313</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -3559,7 +3669,7 @@
         <v>332570</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -3573,7 +3683,7 @@
         <v>369522</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -3587,7 +3697,7 @@
         <v>410580</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -3601,7 +3711,7 @@
         <v>456200</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -3615,7 +3725,7 @@
         <v>506889</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -3629,7 +3739,7 @@
         <v>563210</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -3643,7 +3753,7 @@
         <v>625789</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -3657,7 +3767,7 @@
         <v>695321</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -3671,7 +3781,7 @@
         <v>772579</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -3685,7 +3795,7 @@
         <v>858421</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -3699,7 +3809,7 @@
         <v>953801</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -3713,7 +3823,7 @@
         <v>1059779</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -3727,7 +3837,7 @@
         <v>1177532</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -3741,7 +3851,7 @@
         <v>1308369</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -3755,7 +3865,7 @@
         <v>1453743</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -3769,7 +3879,7 @@
         <v>1615270</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -3783,7 +3893,7 @@
         <v>1794745</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -3797,7 +3907,7 @@
         <v>1994161</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -3811,7 +3921,7 @@
         <v>2215735</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -3825,7 +3935,7 @@
         <v>2461927</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -3839,7 +3949,7 @@
         <v>2735475</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -3853,7 +3963,7 @@
         <v>3039416</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -3867,7 +3977,7 @@
         <v>3377129</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -3881,7 +3991,7 @@
         <v>3752366</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -3895,7 +4005,7 @@
         <v>4169295</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -3909,7 +4019,7 @@
         <v>4632550</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -3923,7 +4033,7 @@
         <v>5147278</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -3937,7 +4047,7 @@
         <v>5719198</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -3951,7 +4061,7 @@
         <v>6354665</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -3965,7 +4075,7 @@
         <v>7060738</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -3979,7 +4089,7 @@
         <v>7845265</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -3993,7 +4103,7 @@
         <v>8716961</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -4007,7 +4117,7 @@
         <v>9685512</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -4021,7 +4131,7 @@
         <v>10761680</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -4035,7 +4145,7 @@
         <v>11957423</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -4048,8 +4158,8 @@
       <c r="C95" s="1">
         <v>13286025</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>179</v>
+      <c r="D95" s="8" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -4062,8 +4172,8 @@
       <c r="C96" s="1">
         <v>14762250</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>180</v>
+      <c r="D96" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -4077,7 +4187,7 @@
         <v>16402500</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -4091,7 +4201,7 @@
         <v>18225000</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -4105,7 +4215,7 @@
         <v>20250000</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -4119,7 +4229,7 @@
         <v>24500000</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -4133,7 +4243,7 @@
         <v>32500000</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="20" customHeight="1">
@@ -4142,17 +4252,407 @@
     <row r="103" spans="1:4" ht="20" customHeight="1">
       <c r="D103" s="8"/>
     </row>
-    <row r="104" spans="1:4" ht="20" customHeight="1">
-      <c r="D104" s="8"/>
-    </row>
-    <row r="105" spans="1:4" ht="20" customHeight="1">
-      <c r="D105" s="8"/>
-    </row>
     <row r="106" spans="1:4" ht="20" customHeight="1">
       <c r="D106" s="8"/>
     </row>
     <row r="107" spans="1:4" ht="20" customHeight="1">
       <c r="D107" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="36" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="B21" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="36" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>40</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>80</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>120</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>160</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>200</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="20" customHeight="1">
+      <c r="B21" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="1020" windowWidth="25600" windowHeight="16060" tabRatio="616" activeTab="5"/>
+    <workbookView xWindow="1140" yWindow="460" windowWidth="34100" windowHeight="18140" tabRatio="616" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -360,21 +360,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resources:wood:1500,resources:stone:1500,resources:iron:1500,resources:food:300,resources:coin:300,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:3000,resources:stone:3000,resources:iron:3000,resources:food:700,resources:coin:700,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:4500,resources:stone:4500,resources:iron:4500,resources:food:1100,resources:coin:1100,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:6000,resources:stone:6000,resources:iron:6000,resources:food:1500,resources:coin:1500,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:7500,resources:stone:7500,resources:iron:7500,resources:food:1800,resources:coin:1800,resources:gem:20</t>
-  </si>
-  <si>
     <t>resource:casinoTokenClass_2:1,special:vipActive_3:1,special:stamina_2:1,special:moveTheCity:1,special:dragonExp_1:1,special:heroBlood_1:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -483,291 +468,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resources:wood:700,resources:stone:700,resources:iron:700,resources:food:100,resources:coin:100,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:2200,resources:stone:2200,resources:iron:2200,resources:food:500,resources:coin:500,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:3700,resources:stone:3700,resources:iron:3700,resources:food:900,resources:coin:900,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:5200,resources:stone:5200,resources:iron:5200,resources:food:1300,resources:coin:1300,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:6800,resources:stone:6800,resources:iron:6800,resources:food:1700,resources:coin:1700,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:8300,resources:stone:8300,resources:iron:8300,resources:food:2000,resources:coin:2000,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:9000,resources:stone:9000,resources:iron:9000,resources:food:2200,resources:coin:2200,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:9800,resources:stone:9800,resources:iron:9800,resources:food:2400,resources:coin:2400,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:10500,resources:stone:10500,resources:iron:10500,resources:food:2600,resources:coin:2600,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:11300,resources:stone:11300,resources:iron:11300,resources:food:2800,resources:coin:2800,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:12000,resources:stone:12000,resources:iron:12000,resources:food:3000,resources:coin:3000,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:12800,resources:stone:12800,resources:iron:12800,resources:food:3200,resources:coin:3200,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:13600,resources:stone:13600,resources:iron:13600,resources:food:3400,resources:coin:3400,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:14300,resources:stone:14300,resources:iron:14300,resources:food:3500,resources:coin:3500,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:15100,resources:stone:15100,resources:iron:15100,resources:food:3700,resources:coin:3700,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:15900,resources:stone:15900,resources:iron:15900,resources:food:3900,resources:coin:3900,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:16600,resources:stone:16600,resources:iron:16600,resources:food:4100,resources:coin:4100,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:17400,resources:stone:17400,resources:iron:17400,resources:food:4300,resources:coin:4300,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:18200,resources:stone:18200,resources:iron:18200,resources:food:4500,resources:coin:4500,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:18900,resources:stone:18900,resources:iron:18900,resources:food:4700,resources:coin:4700,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:19700,resources:stone:19700,resources:iron:19700,resources:food:4900,resources:coin:4900,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:20500,resources:stone:20500,resources:iron:20500,resources:food:5100,resources:coin:5100,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:21300,resources:stone:21300,resources:iron:21300,resources:food:5300,resources:coin:5300,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:22100,resources:stone:22100,resources:iron:22100,resources:food:5500,resources:coin:5500,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:22800,resources:stone:22800,resources:iron:22800,resources:food:5700,resources:coin:5700,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:23600,resources:stone:23600,resources:iron:23600,resources:food:5900,resources:coin:5900,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:24400,resources:stone:24400,resources:iron:24400,resources:food:6100,resources:coin:6100,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:25200,resources:stone:25200,resources:iron:25200,resources:food:6300,resources:coin:6300,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:26000,resources:stone:26000,resources:iron:26000,resources:food:6500,resources:coin:6500,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:26900,resources:stone:26900,resources:iron:26900,resources:food:6700,resources:coin:6700,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:27700,resources:stone:27700,resources:iron:27700,resources:food:6900,resources:coin:6900,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:28500,resources:stone:28500,resources:iron:28500,resources:food:7100,resources:coin:7100,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:29400,resources:stone:29400,resources:iron:29400,resources:food:7300,resources:coin:7300,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:30200,resources:stone:30200,resources:iron:30200,resources:food:7500,resources:coin:7500,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:31100,resources:stone:31100,resources:iron:31100,resources:food:7700,resources:coin:7700,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:31900,resources:stone:31900,resources:iron:31900,resources:food:7900,resources:coin:7900,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:32800,resources:stone:32800,resources:iron:32800,resources:food:8200,resources:coin:8200,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:33700,resources:stone:33700,resources:iron:33700,resources:food:8400,resources:coin:8400,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:34700,resources:stone:34700,resources:iron:34700,resources:food:8600,resources:coin:8600,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:35600,resources:stone:35600,resources:iron:35600,resources:food:8900,resources:coin:8900,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:36600,resources:stone:36600,resources:iron:36600,resources:food:9100,resources:coin:9100,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:37500,resources:stone:37500,resources:iron:37500,resources:food:9300,resources:coin:9300,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:38600,resources:stone:38600,resources:iron:38600,resources:food:9600,resources:coin:9600,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:39600,resources:stone:39600,resources:iron:39600,resources:food:9900,resources:coin:9900,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:40700,resources:stone:40700,resources:iron:40700,resources:food:10100,resources:coin:10100,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:2074900,resources:stone:2074900,resources:iron:2074900,resources:food:518700,resources:coin:518700,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:41800,resources:stone:41800,resources:iron:41800,resources:food:10400,resources:coin:10400,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:42900,resources:stone:42900,resources:iron:42900,resources:food:10700,resources:coin:10700,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:44100,resources:stone:44100,resources:iron:44100,resources:food:11000,resources:coin:11000,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:45400,resources:stone:45400,resources:iron:45400,resources:food:11300,resources:coin:11300,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:46700,resources:stone:46700,resources:iron:46700,resources:food:11600,resources:coin:11600,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:48000,resources:stone:48000,resources:iron:48000,resources:food:12000,resources:coin:12000,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:49400,resources:stone:49400,resources:iron:49400,resources:food:12300,resources:coin:12300,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:50900,resources:stone:50900,resources:iron:50900,resources:food:12700,resources:coin:12700,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:52500,resources:stone:52500,resources:iron:52500,resources:food:13100,resources:coin:13100,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:54200,resources:stone:54200,resources:iron:54200,resources:food:13500,resources:coin:13500,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:56000,resources:stone:56000,resources:iron:56000,resources:food:14000,resources:coin:14000,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:57900,resources:stone:57900,resources:iron:57900,resources:food:14400,resources:coin:14400,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:59900,resources:stone:59900,resources:iron:59900,resources:food:14900,resources:coin:14900,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:62000,resources:stone:62000,resources:iron:62000,resources:food:15500,resources:coin:15500,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:64300,resources:stone:64300,resources:iron:64300,resources:food:16000,resources:coin:16000,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:66800,resources:stone:66800,resources:iron:66800,resources:food:16700,resources:coin:16700,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:69500,resources:stone:69500,resources:iron:69500,resources:food:17300,resources:coin:17300,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:72400,resources:stone:72400,resources:iron:72400,resources:food:18100,resources:coin:18100,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:75500,resources:stone:75500,resources:iron:75500,resources:food:18800,resources:coin:18800,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:78900,resources:stone:78900,resources:iron:78900,resources:food:19700,resources:coin:19700,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:82600,resources:stone:82600,resources:iron:82600,resources:food:20600,resources:coin:20600,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:86700,resources:stone:86700,resources:iron:86700,resources:food:21600,resources:coin:21600,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:91000,resources:stone:91000,resources:iron:91000,resources:food:22700,resources:coin:22700,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:95800,resources:stone:95800,resources:iron:95800,resources:food:23900,resources:coin:23900,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:101100,resources:stone:101100,resources:iron:101100,resources:food:25200,resources:coin:25200,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:106800,resources:stone:106800,resources:iron:106800,resources:food:26700,resources:coin:26700,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:113100,resources:stone:113100,resources:iron:113100,resources:food:28200,resources:coin:28200,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:120000,resources:stone:120000,resources:iron:120000,resources:food:30000,resources:coin:30000,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:127600,resources:stone:127600,resources:iron:127600,resources:food:31900,resources:coin:31900,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:135900,resources:stone:135900,resources:iron:135900,resources:food:33900,resources:coin:33900,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:145100,resources:stone:145100,resources:iron:145100,resources:food:36200,resources:coin:36200,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:155300,resources:stone:155300,resources:iron:155300,resources:food:38800,resources:coin:38800,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:166400,resources:stone:166400,resources:iron:166400,resources:food:41600,resources:coin:41600,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:178800,resources:stone:178800,resources:iron:178800,resources:food:44700,resources:coin:44700,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:192400,resources:stone:192400,resources:iron:192400,resources:food:48100,resources:coin:48100,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:207400,resources:stone:207400,resources:iron:207400,resources:food:51800,resources:coin:51800,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:224100,resources:stone:224100,resources:iron:224100,resources:food:56000,resources:coin:56000,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:242500,resources:stone:242500,resources:iron:242500,resources:food:60600,resources:coin:60600,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:262800,resources:stone:262800,resources:iron:262800,resources:food:65700,resources:coin:65700,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:285400,resources:stone:285400,resources:iron:285400,resources:food:71300,resources:coin:71300,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:310300,resources:stone:310300,resources:iron:310300,resources:food:77500,resources:coin:77500,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:338000,resources:stone:338000,resources:iron:338000,resources:food:84500,resources:coin:84500,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:368600,resources:stone:368600,resources:iron:368600,resources:food:92100,resources:coin:92100,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:402600,resources:stone:402600,resources:iron:402600,resources:food:100600,resources:coin:100600,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:440300,resources:stone:440300,resources:iron:440300,resources:food:110000,resources:coin:110000,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:482000,resources:stone:482000,resources:iron:482000,resources:food:120500,resources:coin:120500,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:528300,resources:stone:528300,resources:iron:528300,resources:food:132000,resources:coin:132000,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:579700,resources:stone:579700,resources:iron:579700,resources:food:144900,resources:coin:144900,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:1136700,resources:stone:1136700,resources:iron:1136700,resources:food:284100,resources:coin:284100,resources:gem:200</t>
-  </si>
-  <si>
     <t>INT_index</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -878,6 +578,306 @@
   <si>
     <t>special:chest_1:1;special:sweepScroll:2</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:wood:700,resources:stone:700,resources:iron:700,resources:food:100,resources:coin:100,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:1500,resources:stone:1500,resources:iron:1500,resources:food:300,resources:coin:300,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:2200,resources:stone:2200,resources:iron:2200,resources:food:500,resources:coin:500,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:3000,resources:stone:3000,resources:iron:3000,resources:food:700,resources:coin:700,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:3700,resources:stone:3700,resources:iron:3700,resources:food:900,resources:coin:900,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:4500,resources:stone:4500,resources:iron:4500,resources:food:1100,resources:coin:1100,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:5200,resources:stone:5200,resources:iron:5200,resources:food:1300,resources:coin:1300,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:6000,resources:stone:6000,resources:iron:6000,resources:food:1500,resources:coin:1500,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:6800,resources:stone:6800,resources:iron:6800,resources:food:1700,resources:coin:1700,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:7500,resources:stone:7500,resources:iron:7500,resources:food:1800,resources:coin:1800,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:8300,resources:stone:8300,resources:iron:8300,resources:food:2000,resources:coin:2000,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:9000,resources:stone:9000,resources:iron:9000,resources:food:2200,resources:coin:2200,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:9800,resources:stone:9800,resources:iron:9800,resources:food:2400,resources:coin:2400,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:10500,resources:stone:10500,resources:iron:10500,resources:food:2600,resources:coin:2600,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:11300,resources:stone:11300,resources:iron:11300,resources:food:2800,resources:coin:2800,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:12000,resources:stone:12000,resources:iron:12000,resources:food:3000,resources:coin:3000,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:12800,resources:stone:12800,resources:iron:12800,resources:food:3200,resources:coin:3200,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:13600,resources:stone:13600,resources:iron:13600,resources:food:3400,resources:coin:3400,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:14300,resources:stone:14300,resources:iron:14300,resources:food:3500,resources:coin:3500,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:15100,resources:stone:15100,resources:iron:15100,resources:food:3700,resources:coin:3700,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:15900,resources:stone:15900,resources:iron:15900,resources:food:3900,resources:coin:3900,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:16600,resources:stone:16600,resources:iron:16600,resources:food:4100,resources:coin:4100,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:17400,resources:stone:17400,resources:iron:17400,resources:food:4300,resources:coin:4300,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:18200,resources:stone:18200,resources:iron:18200,resources:food:4500,resources:coin:4500,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:18900,resources:stone:18900,resources:iron:18900,resources:food:4700,resources:coin:4700,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:19700,resources:stone:19700,resources:iron:19700,resources:food:4900,resources:coin:4900,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:20500,resources:stone:20500,resources:iron:20500,resources:food:5100,resources:coin:5100,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:21300,resources:stone:21300,resources:iron:21300,resources:food:5300,resources:coin:5300,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:22100,resources:stone:22100,resources:iron:22100,resources:food:5500,resources:coin:5500,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:22800,resources:stone:22800,resources:iron:22800,resources:food:5700,resources:coin:5700,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:23600,resources:stone:23600,resources:iron:23600,resources:food:5900,resources:coin:5900,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:24400,resources:stone:24400,resources:iron:24400,resources:food:6100,resources:coin:6100,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:25200,resources:stone:25200,resources:iron:25200,resources:food:6300,resources:coin:6300,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:26000,resources:stone:26000,resources:iron:26000,resources:food:6500,resources:coin:6500,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:26900,resources:stone:26900,resources:iron:26900,resources:food:6700,resources:coin:6700,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:27700,resources:stone:27700,resources:iron:27700,resources:food:6900,resources:coin:6900,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:28500,resources:stone:28500,resources:iron:28500,resources:food:7100,resources:coin:7100,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:29400,resources:stone:29400,resources:iron:29400,resources:food:7300,resources:coin:7300,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:30200,resources:stone:30200,resources:iron:30200,resources:food:7500,resources:coin:7500,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:31100,resources:stone:31100,resources:iron:31100,resources:food:7700,resources:coin:7700,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:31900,resources:stone:31900,resources:iron:31900,resources:food:7900,resources:coin:7900,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:32800,resources:stone:32800,resources:iron:32800,resources:food:8200,resources:coin:8200,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:33700,resources:stone:33700,resources:iron:33700,resources:food:8400,resources:coin:8400,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:34700,resources:stone:34700,resources:iron:34700,resources:food:8600,resources:coin:8600,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:35600,resources:stone:35600,resources:iron:35600,resources:food:8900,resources:coin:8900,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:36600,resources:stone:36600,resources:iron:36600,resources:food:9100,resources:coin:9100,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:37500,resources:stone:37500,resources:iron:37500,resources:food:9300,resources:coin:9300,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:38600,resources:stone:38600,resources:iron:38600,resources:food:9600,resources:coin:9600,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:39600,resources:stone:39600,resources:iron:39600,resources:food:9900,resources:coin:9900,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:40700,resources:stone:40700,resources:iron:40700,resources:food:10100,resources:coin:10100,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:41800,resources:stone:41800,resources:iron:41800,resources:food:10400,resources:coin:10400,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:42900,resources:stone:42900,resources:iron:42900,resources:food:10700,resources:coin:10700,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:44100,resources:stone:44100,resources:iron:44100,resources:food:11000,resources:coin:11000,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:45400,resources:stone:45400,resources:iron:45400,resources:food:11300,resources:coin:11300,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:46700,resources:stone:46700,resources:iron:46700,resources:food:11600,resources:coin:11600,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:48000,resources:stone:48000,resources:iron:48000,resources:food:12000,resources:coin:12000,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:49400,resources:stone:49400,resources:iron:49400,resources:food:12300,resources:coin:12300,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:50900,resources:stone:50900,resources:iron:50900,resources:food:12700,resources:coin:12700,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:52500,resources:stone:52500,resources:iron:52500,resources:food:13100,resources:coin:13100,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:54200,resources:stone:54200,resources:iron:54200,resources:food:13500,resources:coin:13500,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:56000,resources:stone:56000,resources:iron:56000,resources:food:14000,resources:coin:14000,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:57900,resources:stone:57900,resources:iron:57900,resources:food:14400,resources:coin:14400,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:59900,resources:stone:59900,resources:iron:59900,resources:food:14900,resources:coin:14900,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:62000,resources:stone:62000,resources:iron:62000,resources:food:15500,resources:coin:15500,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:64300,resources:stone:64300,resources:iron:64300,resources:food:16000,resources:coin:16000,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:66800,resources:stone:66800,resources:iron:66800,resources:food:16700,resources:coin:16700,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:69500,resources:stone:69500,resources:iron:69500,resources:food:17300,resources:coin:17300,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:72400,resources:stone:72400,resources:iron:72400,resources:food:18100,resources:coin:18100,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:75500,resources:stone:75500,resources:iron:75500,resources:food:18800,resources:coin:18800,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:78900,resources:stone:78900,resources:iron:78900,resources:food:19700,resources:coin:19700,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:82600,resources:stone:82600,resources:iron:82600,resources:food:20600,resources:coin:20600,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:86700,resources:stone:86700,resources:iron:86700,resources:food:21600,resources:coin:21600,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:91000,resources:stone:91000,resources:iron:91000,resources:food:22700,resources:coin:22700,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:95800,resources:stone:95800,resources:iron:95800,resources:food:23900,resources:coin:23900,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:101100,resources:stone:101100,resources:iron:101100,resources:food:25200,resources:coin:25200,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:106800,resources:stone:106800,resources:iron:106800,resources:food:26700,resources:coin:26700,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:113100,resources:stone:113100,resources:iron:113100,resources:food:28200,resources:coin:28200,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:120000,resources:stone:120000,resources:iron:120000,resources:food:30000,resources:coin:30000,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:127600,resources:stone:127600,resources:iron:127600,resources:food:31900,resources:coin:31900,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:135900,resources:stone:135900,resources:iron:135900,resources:food:33900,resources:coin:33900,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:145100,resources:stone:145100,resources:iron:145100,resources:food:36200,resources:coin:36200,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:155300,resources:stone:155300,resources:iron:155300,resources:food:38800,resources:coin:38800,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:166400,resources:stone:166400,resources:iron:166400,resources:food:41600,resources:coin:41600,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:178800,resources:stone:178800,resources:iron:178800,resources:food:44700,resources:coin:44700,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:192400,resources:stone:192400,resources:iron:192400,resources:food:48100,resources:coin:48100,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:207400,resources:stone:207400,resources:iron:207400,resources:food:51800,resources:coin:51800,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:224100,resources:stone:224100,resources:iron:224100,resources:food:56000,resources:coin:56000,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:242500,resources:stone:242500,resources:iron:242500,resources:food:60600,resources:coin:60600,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:262800,resources:stone:262800,resources:iron:262800,resources:food:65700,resources:coin:65700,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:285400,resources:stone:285400,resources:iron:285400,resources:food:71300,resources:coin:71300,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:310300,resources:stone:310300,resources:iron:310300,resources:food:77500,resources:coin:77500,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:338000,resources:stone:338000,resources:iron:338000,resources:food:84500,resources:coin:84500,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:368600,resources:stone:368600,resources:iron:368600,resources:food:92100,resources:coin:92100,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:402600,resources:stone:402600,resources:iron:402600,resources:food:100600,resources:coin:100600,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:440300,resources:stone:440300,resources:iron:440300,resources:food:110000,resources:coin:110000,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:482000,resources:stone:482000,resources:iron:482000,resources:food:120500,resources:coin:120500,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:528300,resources:stone:528300,resources:iron:528300,resources:food:132000,resources:coin:132000,resources:gem:50</t>
+  </si>
+  <si>
+    <t>resources:wood:579700,resources:stone:579700,resources:iron:579700,resources:food:144900,resources:coin:144900,resources:gem:50</t>
+  </si>
+  <si>
+    <t>resources:wood:1136700,resources:stone:1136700,resources:iron:1136700,resources:food:284100,resources:coin:284100,resources:gem:50</t>
+  </si>
+  <si>
+    <t>resources:wood:2074900,resources:stone:2074900,resources:iron:2074900,resources:food:518700,resources:coin:518700,resources:gem:100</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1026,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="326">
+  <cellStyleXfs count="328">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1041,6 +1041,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1388,7 +1390,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="326">
+  <cellStyles count="328">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1554,6 +1556,7 @@
     <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1712,6 +1715,7 @@
     <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2497,145 +2501,145 @@
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1">
         <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1">
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B32" s="1">
         <v>100</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B33" s="1">
         <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B34" s="1">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B35" s="1">
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B37" s="1">
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B39" s="1">
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B40" s="1">
         <v>1000</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B41" s="1">
         <v>30</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B42" s="1">
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2679,7 +2683,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>71</v>
@@ -2820,8 +2824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2857,7 +2861,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -2871,7 +2875,7 @@
         <v>311</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -2885,7 +2889,7 @@
         <v>479</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -2899,7 +2903,7 @@
         <v>655</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -2913,7 +2917,7 @@
         <v>839</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -2927,7 +2931,7 @@
         <v>1031</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -2941,7 +2945,7 @@
         <v>1231</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -2955,7 +2959,7 @@
         <v>1439</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -2969,7 +2973,7 @@
         <v>1655</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -2983,7 +2987,7 @@
         <v>1879</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -2997,7 +3001,7 @@
         <v>2111</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -3011,7 +3015,7 @@
         <v>2351</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -3025,7 +3029,7 @@
         <v>2612</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -3039,7 +3043,7 @@
         <v>2903</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -3053,7 +3057,7 @@
         <v>3225</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3067,7 +3071,7 @@
         <v>3584</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -3081,7 +3085,7 @@
         <v>3982</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -3095,7 +3099,7 @@
         <v>4424</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -3109,7 +3113,7 @@
         <v>4916</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3123,7 +3127,7 @@
         <v>5462</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3137,7 +3141,7 @@
         <v>6069</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3151,7 +3155,7 @@
         <v>6743</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3165,7 +3169,7 @@
         <v>7492</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3179,7 +3183,7 @@
         <v>8325</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3193,7 +3197,7 @@
         <v>9250</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3207,7 +3211,7 @@
         <v>10277</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -3221,7 +3225,7 @@
         <v>11419</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -3235,7 +3239,7 @@
         <v>12688</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -3249,7 +3253,7 @@
         <v>14098</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -3263,7 +3267,7 @@
         <v>15664</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -3277,7 +3281,7 @@
         <v>17405</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -3291,7 +3295,7 @@
         <v>19339</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -3305,7 +3309,7 @@
         <v>21488</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -3319,7 +3323,7 @@
         <v>23875</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -3333,7 +3337,7 @@
         <v>26528</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -3347,7 +3351,7 @@
         <v>29475</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -3361,7 +3365,7 @@
         <v>32751</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -3375,7 +3379,7 @@
         <v>36389</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3389,7 +3393,7 @@
         <v>40433</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3403,7 +3407,7 @@
         <v>44925</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3417,7 +3421,7 @@
         <v>49917</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3431,7 +3435,7 @@
         <v>55463</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3445,7 +3449,7 @@
         <v>61626</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3459,7 +3463,7 @@
         <v>68473</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3473,7 +3477,7 @@
         <v>76081</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3487,7 +3491,7 @@
         <v>84535</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3501,7 +3505,7 @@
         <v>93928</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3515,7 +3519,7 @@
         <v>104364</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3529,7 +3533,7 @@
         <v>115960</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3543,7 +3547,7 @@
         <v>128844</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3557,7 +3561,7 @@
         <v>143160</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3571,7 +3575,7 @@
         <v>159067</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3585,7 +3589,7 @@
         <v>176741</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3599,7 +3603,7 @@
         <v>196379</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3613,7 +3617,7 @@
         <v>218199</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -3627,7 +3631,7 @@
         <v>242443</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -3641,7 +3645,7 @@
         <v>269382</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -3655,7 +3659,7 @@
         <v>299313</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -3669,7 +3673,7 @@
         <v>332570</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -3683,7 +3687,7 @@
         <v>369522</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -3697,7 +3701,7 @@
         <v>410580</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -3711,7 +3715,7 @@
         <v>456200</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -3725,7 +3729,7 @@
         <v>506889</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -3739,7 +3743,7 @@
         <v>563210</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -3753,7 +3757,7 @@
         <v>625789</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -3767,7 +3771,7 @@
         <v>695321</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -3781,7 +3785,7 @@
         <v>772579</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -3795,7 +3799,7 @@
         <v>858421</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -3809,7 +3813,7 @@
         <v>953801</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -3823,7 +3827,7 @@
         <v>1059779</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -3837,7 +3841,7 @@
         <v>1177532</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -3851,7 +3855,7 @@
         <v>1308369</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -3865,7 +3869,7 @@
         <v>1453743</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -3879,7 +3883,7 @@
         <v>1615270</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -3893,7 +3897,7 @@
         <v>1794745</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -3907,7 +3911,7 @@
         <v>1994161</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -3921,7 +3925,7 @@
         <v>2215735</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -3935,7 +3939,7 @@
         <v>2461927</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -3949,7 +3953,7 @@
         <v>2735475</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -3963,7 +3967,7 @@
         <v>3039416</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -3977,7 +3981,7 @@
         <v>3377129</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -3991,7 +3995,7 @@
         <v>3752366</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -4005,7 +4009,7 @@
         <v>4169295</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -4019,7 +4023,7 @@
         <v>4632550</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -4033,7 +4037,7 @@
         <v>5147278</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -4047,7 +4051,7 @@
         <v>5719198</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -4061,7 +4065,7 @@
         <v>6354665</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -4075,7 +4079,7 @@
         <v>7060738</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -4089,7 +4093,7 @@
         <v>7845265</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -4103,7 +4107,7 @@
         <v>8716961</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -4117,7 +4121,7 @@
         <v>9685512</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -4131,7 +4135,7 @@
         <v>10761680</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -4144,8 +4148,8 @@
       <c r="C94" s="1">
         <v>11957423</v>
       </c>
-      <c r="D94" s="7" t="s">
-        <v>198</v>
+      <c r="D94" s="8" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -4159,7 +4163,7 @@
         <v>13286025</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -4173,7 +4177,7 @@
         <v>14762250</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -4187,7 +4191,7 @@
         <v>16402500</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -4201,7 +4205,7 @@
         <v>18225000</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -4215,7 +4219,7 @@
         <v>20250000</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -4229,7 +4233,7 @@
         <v>24500000</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -4243,14 +4247,11 @@
         <v>32500000</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="20" customHeight="1">
       <c r="D102" s="8"/>
-    </row>
-    <row r="103" spans="1:4" ht="20" customHeight="1">
-      <c r="D103" s="8"/>
     </row>
     <row r="106" spans="1:4" ht="20" customHeight="1">
       <c r="D106" s="8"/>
@@ -4291,19 +4292,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -4317,7 +4318,7 @@
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -4331,7 +4332,7 @@
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -4345,7 +4346,7 @@
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -4359,7 +4360,7 @@
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -4373,7 +4374,7 @@
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -4387,7 +4388,7 @@
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
@@ -4401,7 +4402,7 @@
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
@@ -4415,7 +4416,7 @@
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -4429,7 +4430,7 @@
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
@@ -4443,7 +4444,7 @@
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
@@ -4457,7 +4458,7 @@
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
@@ -4471,7 +4472,7 @@
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
@@ -4485,7 +4486,7 @@
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="B15" s="1">
         <v>13</v>
@@ -4499,7 +4500,7 @@
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>222</v>
+        <v>122</v>
       </c>
       <c r="B16" s="1">
         <v>14</v>
@@ -4513,7 +4514,7 @@
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
       <c r="B17" s="1">
         <v>15</v>
@@ -4527,7 +4528,7 @@
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>224</v>
+        <v>124</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
@@ -4541,7 +4542,7 @@
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="B19" s="1">
         <v>17</v>
@@ -4572,7 +4573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -4586,13 +4587,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>226</v>
+        <v>126</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>228</v>
+        <v>128</v>
       </c>
       <c r="F1" s="4"/>
     </row>
@@ -4604,7 +4605,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>229</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -4615,7 +4616,7 @@
         <v>80</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>233</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -4626,7 +4627,7 @@
         <v>120</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>230</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
@@ -4637,7 +4638,7 @@
         <v>160</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>231</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
@@ -4648,7 +4649,7 @@
         <v>200</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>232</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="460" windowWidth="34100" windowHeight="18140" tabRatio="616" activeTab="3"/>
+    <workbookView xWindow="1140" yWindow="460" windowWidth="34100" windowHeight="18140" tabRatio="616"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -2167,8 +2167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2614,7 +2614,7 @@
         <v>99</v>
       </c>
       <c r="B40" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>100</v>
@@ -2824,7 +2824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D103"/>
     </sheetView>
   </sheetViews>

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="460" windowWidth="34100" windowHeight="18140" tabRatio="616"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="616" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="236">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -360,10 +360,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resource:casinoTokenClass_2:1,special:vipActive_3:1,special:stamina_2:1,special:moveTheCity:1,special:dragonExp_1:1,special:heroBlood_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>activePlayerNeedHouses</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -564,22 +560,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resource:coinClass_3:1;resource:foodClass_3:1</t>
-  </si>
-  <si>
-    <t>resource:woodClass_3:2;resource:stoneClass_3:2;resource:ironClass_3:2;resource:foodClass_3:2</t>
-  </si>
-  <si>
-    <t>special:chest_2:1;special:sweepScroll:5</t>
-  </si>
-  <si>
-    <t>resource:gemClass_2:1;resource:stoneClass_4:1;resource:ironClass_4:1;resource:foodClass_4:1</t>
-  </si>
-  <si>
-    <t>special:chest_1:1;special:sweepScroll:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>resources:wood:700,resources:stone:700,resources:iron:700,resources:food:100,resources:coin:100,resources:gem:1</t>
   </si>
   <si>
@@ -878,6 +858,38 @@
   </si>
   <si>
     <t>resources:wood:2074900,resources:stone:2074900,resources:iron:2074900,resources:food:518700,resources:coin:518700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>items:casinoTokenClass_2:1,items:vipActive_3:1,items:stamina_2:1,items:moveTheCity:1,items:dragonExp_1:1,items:heroBlood_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_3:1;items:foodClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_1:1;items:sweepScroll:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_3:2;items:stoneClass_3:2;items:ironClass_3:2;items:foodClass_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_2:1;items:sweepScroll:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:1;items:stoneClass_4:1;items:ironClass_4:1;items:foodClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstJoinAllianceRewards</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1026,7 +1038,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="328">
+  <cellStyleXfs count="330">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1041,6 +1053,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1390,7 +1404,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="328">
+  <cellStyles count="330">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1557,6 +1571,7 @@
     <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1716,6 +1731,7 @@
     <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2167,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView showRuler="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2501,145 +2517,145 @@
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="1">
         <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="1">
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" s="1">
         <v>100</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" s="1">
         <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B34" s="1">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" s="1">
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B37" s="1">
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B39" s="1">
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40" s="1">
         <v>2000</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B41" s="1">
         <v>30</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="1">
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2658,8 +2674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2683,14 +2699,19 @@
         <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
-      <c r="B3" s="6"/>
+      <c r="A3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="B4" s="6"/>
@@ -2718,7 +2739,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2825,7 +2846,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D103"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2861,7 +2882,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -2875,7 +2896,7 @@
         <v>311</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -2889,7 +2910,7 @@
         <v>479</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -2903,7 +2924,7 @@
         <v>655</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -2917,7 +2938,7 @@
         <v>839</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -2931,7 +2952,7 @@
         <v>1031</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -2945,7 +2966,7 @@
         <v>1231</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -2959,7 +2980,7 @@
         <v>1439</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -2973,7 +2994,7 @@
         <v>1655</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -2987,7 +3008,7 @@
         <v>1879</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -3001,7 +3022,7 @@
         <v>2111</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -3015,7 +3036,7 @@
         <v>2351</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -3029,7 +3050,7 @@
         <v>2612</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -3043,7 +3064,7 @@
         <v>2903</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -3057,7 +3078,7 @@
         <v>3225</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3071,7 +3092,7 @@
         <v>3584</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -3085,7 +3106,7 @@
         <v>3982</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -3099,7 +3120,7 @@
         <v>4424</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -3113,7 +3134,7 @@
         <v>4916</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3127,7 +3148,7 @@
         <v>5462</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3141,7 +3162,7 @@
         <v>6069</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3155,7 +3176,7 @@
         <v>6743</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3169,7 +3190,7 @@
         <v>7492</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3183,7 +3204,7 @@
         <v>8325</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3197,7 +3218,7 @@
         <v>9250</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3211,7 +3232,7 @@
         <v>10277</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -3225,7 +3246,7 @@
         <v>11419</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -3239,7 +3260,7 @@
         <v>12688</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -3253,7 +3274,7 @@
         <v>14098</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -3267,7 +3288,7 @@
         <v>15664</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -3281,7 +3302,7 @@
         <v>17405</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -3295,7 +3316,7 @@
         <v>19339</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -3309,7 +3330,7 @@
         <v>21488</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -3323,7 +3344,7 @@
         <v>23875</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -3337,7 +3358,7 @@
         <v>26528</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -3351,7 +3372,7 @@
         <v>29475</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -3365,7 +3386,7 @@
         <v>32751</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -3379,7 +3400,7 @@
         <v>36389</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3393,7 +3414,7 @@
         <v>40433</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3407,7 +3428,7 @@
         <v>44925</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3421,7 +3442,7 @@
         <v>49917</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3435,7 +3456,7 @@
         <v>55463</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3449,7 +3470,7 @@
         <v>61626</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3463,7 +3484,7 @@
         <v>68473</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3477,7 +3498,7 @@
         <v>76081</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3491,7 +3512,7 @@
         <v>84535</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3505,7 +3526,7 @@
         <v>93928</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3519,7 +3540,7 @@
         <v>104364</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3533,7 +3554,7 @@
         <v>115960</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3547,7 +3568,7 @@
         <v>128844</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3561,7 +3582,7 @@
         <v>143160</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3575,7 +3596,7 @@
         <v>159067</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3589,7 +3610,7 @@
         <v>176741</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3603,7 +3624,7 @@
         <v>196379</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3617,7 +3638,7 @@
         <v>218199</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -3631,7 +3652,7 @@
         <v>242443</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -3645,7 +3666,7 @@
         <v>269382</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -3659,7 +3680,7 @@
         <v>299313</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -3673,7 +3694,7 @@
         <v>332570</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -3687,7 +3708,7 @@
         <v>369522</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -3701,7 +3722,7 @@
         <v>410580</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -3715,7 +3736,7 @@
         <v>456200</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -3729,7 +3750,7 @@
         <v>506889</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -3743,7 +3764,7 @@
         <v>563210</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -3757,7 +3778,7 @@
         <v>625789</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -3771,7 +3792,7 @@
         <v>695321</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -3785,7 +3806,7 @@
         <v>772579</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -3799,7 +3820,7 @@
         <v>858421</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -3813,7 +3834,7 @@
         <v>953801</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -3827,7 +3848,7 @@
         <v>1059779</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -3841,7 +3862,7 @@
         <v>1177532</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -3855,7 +3876,7 @@
         <v>1308369</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -3869,7 +3890,7 @@
         <v>1453743</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -3883,7 +3904,7 @@
         <v>1615270</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -3897,7 +3918,7 @@
         <v>1794745</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -3911,7 +3932,7 @@
         <v>1994161</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -3925,7 +3946,7 @@
         <v>2215735</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -3939,7 +3960,7 @@
         <v>2461927</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -3953,7 +3974,7 @@
         <v>2735475</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -3967,7 +3988,7 @@
         <v>3039416</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -3981,7 +4002,7 @@
         <v>3377129</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -3995,7 +4016,7 @@
         <v>3752366</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -4009,7 +4030,7 @@
         <v>4169295</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -4023,7 +4044,7 @@
         <v>4632550</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -4037,7 +4058,7 @@
         <v>5147278</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -4051,7 +4072,7 @@
         <v>5719198</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -4065,7 +4086,7 @@
         <v>6354665</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -4079,7 +4100,7 @@
         <v>7060738</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -4093,7 +4114,7 @@
         <v>7845265</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -4107,7 +4128,7 @@
         <v>8716961</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -4121,7 +4142,7 @@
         <v>9685512</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -4135,7 +4156,7 @@
         <v>10761680</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -4149,7 +4170,7 @@
         <v>11957423</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -4163,7 +4184,7 @@
         <v>13286025</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -4177,7 +4198,7 @@
         <v>14762250</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -4191,7 +4212,7 @@
         <v>16402500</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -4205,7 +4226,7 @@
         <v>18225000</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -4219,7 +4240,7 @@
         <v>20250000</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -4233,7 +4254,7 @@
         <v>24500000</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -4247,7 +4268,7 @@
         <v>32500000</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="20" customHeight="1">
@@ -4276,7 +4297,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4292,19 +4313,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -4318,7 +4339,7 @@
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -4332,7 +4353,7 @@
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -4346,7 +4367,7 @@
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -4360,7 +4381,7 @@
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -4374,7 +4395,7 @@
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -4388,7 +4409,7 @@
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
@@ -4402,7 +4423,7 @@
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
@@ -4416,7 +4437,7 @@
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -4430,7 +4451,7 @@
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
@@ -4444,7 +4465,7 @@
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
@@ -4458,7 +4479,7 @@
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
@@ -4472,7 +4493,7 @@
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
@@ -4486,7 +4507,7 @@
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="1">
         <v>13</v>
@@ -4500,7 +4521,7 @@
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="1">
         <v>14</v>
@@ -4514,7 +4535,7 @@
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" s="1">
         <v>15</v>
@@ -4528,7 +4549,7 @@
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
@@ -4542,7 +4563,7 @@
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="1">
         <v>17</v>
@@ -4574,7 +4595,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4587,13 +4608,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="F1" s="4"/>
     </row>
@@ -4605,7 +4626,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>129</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -4616,7 +4637,7 @@
         <v>80</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -4627,7 +4648,7 @@
         <v>120</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>130</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
@@ -4638,7 +4659,7 @@
         <v>160</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
@@ -4649,7 +4670,7 @@
         <v>200</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>132</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -884,12 +884,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>firstJoinAllianceRewards</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:gem:200</t>
   </si>
 </sst>
 </file>
@@ -2675,7 +2674,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2707,10 +2706,10 @@
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="616" activeTab="1"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="35500" windowHeight="19500" tabRatio="616" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -2673,7 +2673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2737,8 +2737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2813,7 +2813,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K2" s="1">
         <v>100</v>

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="35500" windowHeight="19500" tabRatio="616" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="616" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -2737,8 +2737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2813,7 +2813,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="1">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1">
         <v>100</v>

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="616" activeTab="2"/>
+    <workbookView xWindow="520" yWindow="0" windowWidth="33740" windowHeight="17320" tabRatio="616" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -864,31 +864,31 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:coinClass_3:1;items:foodClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_1:1;items:sweepScroll:2</t>
+    <t>firstJoinAllianceRewards</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:gem:200</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:1;items:stoneClass_4:1;items:ironClass_4:1;items:foodClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_3:1;items:sweepScroll:5;items:speedup_1:10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_1:1;items:speedup_2:5;items:dragonHp_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:retreatTroop:2;items:warSpeedupClass_1:5;items:chest_2:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>items:woodClass_3:2;items:stoneClass_3:2;items:ironClass_3:2;items:foodClass_3:2</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_2:1;items:sweepScroll:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:gemClass_2:1;items:stoneClass_4:1;items:ironClass_4:1;items:foodClass_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstJoinAllianceRewards</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources:gem:200</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1037,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="330">
+  <cellStyleXfs count="346">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1052,6 +1052,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1403,7 +1419,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="330">
+  <cellStyles count="346">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1571,6 +1587,14 @@
     <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1731,6 +1755,14 @@
     <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2706,10 +2738,10 @@
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -2737,7 +2769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -2844,7 +2876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -4593,15 +4625,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="36" style="1" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -4622,10 +4654,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -4633,10 +4665,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>80</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>230</v>
+        <v>60</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -4644,10 +4676,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
@@ -4655,10 +4687,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
@@ -4666,10 +4698,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>200</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>233</v>
+        <v>150</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="0" windowWidth="33740" windowHeight="17320" tabRatio="616" activeTab="5"/>
+    <workbookView xWindow="520" yWindow="0" windowWidth="33740" windowHeight="17320" tabRatio="616" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -2769,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2845,7 +2845,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="1">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="K2" s="1">
         <v>100</v>
@@ -4625,7 +4625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="0" windowWidth="33740" windowHeight="17320" tabRatio="616" activeTab="2"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="33740" windowHeight="17320" tabRatio="616"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -2214,8 +2214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2518,7 +2518,7 @@
         <v>72</v>
       </c>
       <c r="B27" s="1">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>73</v>
@@ -2769,7 +2769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="33740" windowHeight="17320" tabRatio="616"/>
+    <workbookView xWindow="500" yWindow="0" windowWidth="33740" windowHeight="17320" tabRatio="616"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -560,306 +560,18 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resources:wood:700,resources:stone:700,resources:iron:700,resources:food:100,resources:coin:100,resources:gem:1</t>
-  </si>
-  <si>
-    <t>resources:wood:1500,resources:stone:1500,resources:iron:1500,resources:food:300,resources:coin:300,resources:gem:1</t>
-  </si>
-  <si>
-    <t>resources:wood:2200,resources:stone:2200,resources:iron:2200,resources:food:500,resources:coin:500,resources:gem:1</t>
-  </si>
-  <si>
-    <t>resources:wood:3000,resources:stone:3000,resources:iron:3000,resources:food:700,resources:coin:700,resources:gem:1</t>
-  </si>
-  <si>
-    <t>resources:wood:3700,resources:stone:3700,resources:iron:3700,resources:food:900,resources:coin:900,resources:gem:1</t>
-  </si>
-  <si>
-    <t>resources:wood:4500,resources:stone:4500,resources:iron:4500,resources:food:1100,resources:coin:1100,resources:gem:1</t>
-  </si>
-  <si>
-    <t>resources:wood:5200,resources:stone:5200,resources:iron:5200,resources:food:1300,resources:coin:1300,resources:gem:1</t>
-  </si>
-  <si>
-    <t>resources:wood:6000,resources:stone:6000,resources:iron:6000,resources:food:1500,resources:coin:1500,resources:gem:1</t>
-  </si>
-  <si>
-    <t>resources:wood:6800,resources:stone:6800,resources:iron:6800,resources:food:1700,resources:coin:1700,resources:gem:1</t>
-  </si>
-  <si>
     <t>resources:wood:7500,resources:stone:7500,resources:iron:7500,resources:food:1800,resources:coin:1800,resources:gem:1</t>
   </si>
   <si>
-    <t>resources:wood:8300,resources:stone:8300,resources:iron:8300,resources:food:2000,resources:coin:2000,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:9000,resources:stone:9000,resources:iron:9000,resources:food:2200,resources:coin:2200,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:9800,resources:stone:9800,resources:iron:9800,resources:food:2400,resources:coin:2400,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:10500,resources:stone:10500,resources:iron:10500,resources:food:2600,resources:coin:2600,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:11300,resources:stone:11300,resources:iron:11300,resources:food:2800,resources:coin:2800,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:12000,resources:stone:12000,resources:iron:12000,resources:food:3000,resources:coin:3000,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:12800,resources:stone:12800,resources:iron:12800,resources:food:3200,resources:coin:3200,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:13600,resources:stone:13600,resources:iron:13600,resources:food:3400,resources:coin:3400,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:14300,resources:stone:14300,resources:iron:14300,resources:food:3500,resources:coin:3500,resources:gem:2</t>
-  </si>
-  <si>
     <t>resources:wood:15100,resources:stone:15100,resources:iron:15100,resources:food:3700,resources:coin:3700,resources:gem:2</t>
   </si>
   <si>
-    <t>resources:wood:15900,resources:stone:15900,resources:iron:15900,resources:food:3900,resources:coin:3900,resources:gem:3</t>
-  </si>
-  <si>
-    <t>resources:wood:16600,resources:stone:16600,resources:iron:16600,resources:food:4100,resources:coin:4100,resources:gem:3</t>
-  </si>
-  <si>
-    <t>resources:wood:17400,resources:stone:17400,resources:iron:17400,resources:food:4300,resources:coin:4300,resources:gem:3</t>
-  </si>
-  <si>
-    <t>resources:wood:18200,resources:stone:18200,resources:iron:18200,resources:food:4500,resources:coin:4500,resources:gem:3</t>
-  </si>
-  <si>
-    <t>resources:wood:18900,resources:stone:18900,resources:iron:18900,resources:food:4700,resources:coin:4700,resources:gem:3</t>
-  </si>
-  <si>
-    <t>resources:wood:19700,resources:stone:19700,resources:iron:19700,resources:food:4900,resources:coin:4900,resources:gem:3</t>
-  </si>
-  <si>
-    <t>resources:wood:20500,resources:stone:20500,resources:iron:20500,resources:food:5100,resources:coin:5100,resources:gem:3</t>
-  </si>
-  <si>
-    <t>resources:wood:21300,resources:stone:21300,resources:iron:21300,resources:food:5300,resources:coin:5300,resources:gem:3</t>
-  </si>
-  <si>
-    <t>resources:wood:22100,resources:stone:22100,resources:iron:22100,resources:food:5500,resources:coin:5500,resources:gem:3</t>
-  </si>
-  <si>
-    <t>resources:wood:22800,resources:stone:22800,resources:iron:22800,resources:food:5700,resources:coin:5700,resources:gem:3</t>
-  </si>
-  <si>
-    <t>resources:wood:23600,resources:stone:23600,resources:iron:23600,resources:food:5900,resources:coin:5900,resources:gem:4</t>
-  </si>
-  <si>
-    <t>resources:wood:24400,resources:stone:24400,resources:iron:24400,resources:food:6100,resources:coin:6100,resources:gem:4</t>
-  </si>
-  <si>
-    <t>resources:wood:25200,resources:stone:25200,resources:iron:25200,resources:food:6300,resources:coin:6300,resources:gem:4</t>
-  </si>
-  <si>
-    <t>resources:wood:26000,resources:stone:26000,resources:iron:26000,resources:food:6500,resources:coin:6500,resources:gem:4</t>
-  </si>
-  <si>
-    <t>resources:wood:26900,resources:stone:26900,resources:iron:26900,resources:food:6700,resources:coin:6700,resources:gem:4</t>
-  </si>
-  <si>
-    <t>resources:wood:27700,resources:stone:27700,resources:iron:27700,resources:food:6900,resources:coin:6900,resources:gem:4</t>
-  </si>
-  <si>
-    <t>resources:wood:28500,resources:stone:28500,resources:iron:28500,resources:food:7100,resources:coin:7100,resources:gem:4</t>
-  </si>
-  <si>
-    <t>resources:wood:29400,resources:stone:29400,resources:iron:29400,resources:food:7300,resources:coin:7300,resources:gem:4</t>
-  </si>
-  <si>
-    <t>resources:wood:30200,resources:stone:30200,resources:iron:30200,resources:food:7500,resources:coin:7500,resources:gem:4</t>
-  </si>
-  <si>
-    <t>resources:wood:31100,resources:stone:31100,resources:iron:31100,resources:food:7700,resources:coin:7700,resources:gem:4</t>
-  </si>
-  <si>
-    <t>resources:wood:31900,resources:stone:31900,resources:iron:31900,resources:food:7900,resources:coin:7900,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:32800,resources:stone:32800,resources:iron:32800,resources:food:8200,resources:coin:8200,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:33700,resources:stone:33700,resources:iron:33700,resources:food:8400,resources:coin:8400,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:34700,resources:stone:34700,resources:iron:34700,resources:food:8600,resources:coin:8600,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:35600,resources:stone:35600,resources:iron:35600,resources:food:8900,resources:coin:8900,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:36600,resources:stone:36600,resources:iron:36600,resources:food:9100,resources:coin:9100,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:37500,resources:stone:37500,resources:iron:37500,resources:food:9300,resources:coin:9300,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:38600,resources:stone:38600,resources:iron:38600,resources:food:9600,resources:coin:9600,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:39600,resources:stone:39600,resources:iron:39600,resources:food:9900,resources:coin:9900,resources:gem:5</t>
-  </si>
-  <si>
     <t>resources:wood:40700,resources:stone:40700,resources:iron:40700,resources:food:10100,resources:coin:10100,resources:gem:5</t>
   </si>
   <si>
-    <t>resources:wood:41800,resources:stone:41800,resources:iron:41800,resources:food:10400,resources:coin:10400,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:42900,resources:stone:42900,resources:iron:42900,resources:food:10700,resources:coin:10700,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:44100,resources:stone:44100,resources:iron:44100,resources:food:11000,resources:coin:11000,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:45400,resources:stone:45400,resources:iron:45400,resources:food:11300,resources:coin:11300,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:46700,resources:stone:46700,resources:iron:46700,resources:food:11600,resources:coin:11600,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:48000,resources:stone:48000,resources:iron:48000,resources:food:12000,resources:coin:12000,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:49400,resources:stone:49400,resources:iron:49400,resources:food:12300,resources:coin:12300,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:50900,resources:stone:50900,resources:iron:50900,resources:food:12700,resources:coin:12700,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:52500,resources:stone:52500,resources:iron:52500,resources:food:13100,resources:coin:13100,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:54200,resources:stone:54200,resources:iron:54200,resources:food:13500,resources:coin:13500,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:56000,resources:stone:56000,resources:iron:56000,resources:food:14000,resources:coin:14000,resources:gem:5</t>
-  </si>
-  <si>
     <t>resources:wood:57900,resources:stone:57900,resources:iron:57900,resources:food:14400,resources:coin:14400,resources:gem:5</t>
   </si>
   <si>
-    <t>resources:wood:59900,resources:stone:59900,resources:iron:59900,resources:food:14900,resources:coin:14900,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:62000,resources:stone:62000,resources:iron:62000,resources:food:15500,resources:coin:15500,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:64300,resources:stone:64300,resources:iron:64300,resources:food:16000,resources:coin:16000,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:66800,resources:stone:66800,resources:iron:66800,resources:food:16700,resources:coin:16700,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:69500,resources:stone:69500,resources:iron:69500,resources:food:17300,resources:coin:17300,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:72400,resources:stone:72400,resources:iron:72400,resources:food:18100,resources:coin:18100,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:75500,resources:stone:75500,resources:iron:75500,resources:food:18800,resources:coin:18800,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:78900,resources:stone:78900,resources:iron:78900,resources:food:19700,resources:coin:19700,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:82600,resources:stone:82600,resources:iron:82600,resources:food:20600,resources:coin:20600,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:86700,resources:stone:86700,resources:iron:86700,resources:food:21600,resources:coin:21600,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:91000,resources:stone:91000,resources:iron:91000,resources:food:22700,resources:coin:22700,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:95800,resources:stone:95800,resources:iron:95800,resources:food:23900,resources:coin:23900,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:101100,resources:stone:101100,resources:iron:101100,resources:food:25200,resources:coin:25200,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:106800,resources:stone:106800,resources:iron:106800,resources:food:26700,resources:coin:26700,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:113100,resources:stone:113100,resources:iron:113100,resources:food:28200,resources:coin:28200,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:120000,resources:stone:120000,resources:iron:120000,resources:food:30000,resources:coin:30000,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:127600,resources:stone:127600,resources:iron:127600,resources:food:31900,resources:coin:31900,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:135900,resources:stone:135900,resources:iron:135900,resources:food:33900,resources:coin:33900,resources:gem:15</t>
-  </si>
-  <si>
-    <t>resources:wood:145100,resources:stone:145100,resources:iron:145100,resources:food:36200,resources:coin:36200,resources:gem:15</t>
-  </si>
-  <si>
-    <t>resources:wood:155300,resources:stone:155300,resources:iron:155300,resources:food:38800,resources:coin:38800,resources:gem:15</t>
-  </si>
-  <si>
-    <t>resources:wood:166400,resources:stone:166400,resources:iron:166400,resources:food:41600,resources:coin:41600,resources:gem:15</t>
-  </si>
-  <si>
-    <t>resources:wood:178800,resources:stone:178800,resources:iron:178800,resources:food:44700,resources:coin:44700,resources:gem:15</t>
-  </si>
-  <si>
-    <t>resources:wood:192400,resources:stone:192400,resources:iron:192400,resources:food:48100,resources:coin:48100,resources:gem:15</t>
-  </si>
-  <si>
-    <t>resources:wood:207400,resources:stone:207400,resources:iron:207400,resources:food:51800,resources:coin:51800,resources:gem:15</t>
-  </si>
-  <si>
-    <t>resources:wood:224100,resources:stone:224100,resources:iron:224100,resources:food:56000,resources:coin:56000,resources:gem:15</t>
-  </si>
-  <si>
-    <t>resources:wood:242500,resources:stone:242500,resources:iron:242500,resources:food:60600,resources:coin:60600,resources:gem:15</t>
-  </si>
-  <si>
-    <t>resources:wood:262800,resources:stone:262800,resources:iron:262800,resources:food:65700,resources:coin:65700,resources:gem:15</t>
-  </si>
-  <si>
-    <t>resources:wood:285400,resources:stone:285400,resources:iron:285400,resources:food:71300,resources:coin:71300,resources:gem:15</t>
-  </si>
-  <si>
-    <t>resources:wood:310300,resources:stone:310300,resources:iron:310300,resources:food:77500,resources:coin:77500,resources:gem:25</t>
-  </si>
-  <si>
-    <t>resources:wood:338000,resources:stone:338000,resources:iron:338000,resources:food:84500,resources:coin:84500,resources:gem:25</t>
-  </si>
-  <si>
-    <t>resources:wood:368600,resources:stone:368600,resources:iron:368600,resources:food:92100,resources:coin:92100,resources:gem:25</t>
-  </si>
-  <si>
-    <t>resources:wood:402600,resources:stone:402600,resources:iron:402600,resources:food:100600,resources:coin:100600,resources:gem:25</t>
-  </si>
-  <si>
-    <t>resources:wood:440300,resources:stone:440300,resources:iron:440300,resources:food:110000,resources:coin:110000,resources:gem:25</t>
-  </si>
-  <si>
-    <t>resources:wood:482000,resources:stone:482000,resources:iron:482000,resources:food:120500,resources:coin:120500,resources:gem:25</t>
-  </si>
-  <si>
-    <t>resources:wood:528300,resources:stone:528300,resources:iron:528300,resources:food:132000,resources:coin:132000,resources:gem:50</t>
-  </si>
-  <si>
-    <t>resources:wood:579700,resources:stone:579700,resources:iron:579700,resources:food:144900,resources:coin:144900,resources:gem:50</t>
-  </si>
-  <si>
-    <t>resources:wood:1136700,resources:stone:1136700,resources:iron:1136700,resources:food:284100,resources:coin:284100,resources:gem:50</t>
-  </si>
-  <si>
-    <t>resources:wood:2074900,resources:stone:2074900,resources:iron:2074900,resources:food:518700,resources:coin:518700,resources:gem:100</t>
-  </si>
-  <si>
     <t>items:casinoTokenClass_2:1,items:vipActive_3:1,items:stamina_2:1,items:moveTheCity:1,items:dragonExp_1:1,items:heroBlood_1:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -889,6 +601,294 @@
   <si>
     <t>items:woodClass_3:2;items:stoneClass_3:2;items:ironClass_3:2;items:foodClass_3:2</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:wood:1100,resources:stone:1100,resources:iron:1100,resources:food:200,resources:coin:200,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:2100,resources:stone:2100,resources:iron:2100,resources:food:500,resources:coin:500,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:3200,resources:stone:3200,resources:iron:3200,resources:food:800,resources:coin:800,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:4300,resources:stone:4300,resources:iron:4300,resources:food:1000,resources:coin:1000,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:5400,resources:stone:5400,resources:iron:5400,resources:food:1300,resources:coin:1300,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:6400,resources:stone:6400,resources:iron:6400,resources:food:1600,resources:coin:1600,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:8600,resources:stone:8600,resources:iron:8600,resources:food:2100,resources:coin:2100,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:9700,resources:stone:9700,resources:iron:9700,resources:food:2400,resources:coin:2400,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:10700,resources:stone:10700,resources:iron:10700,resources:food:2600,resources:coin:2600,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:11800,resources:stone:11800,resources:iron:11800,resources:food:2900,resources:coin:2900,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:12900,resources:stone:12900,resources:iron:12900,resources:food:3200,resources:coin:3200,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:14000,resources:stone:14000,resources:iron:14000,resources:food:3500,resources:coin:3500,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:16100,resources:stone:16100,resources:iron:16100,resources:food:4000,resources:coin:4000,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:17200,resources:stone:17200,resources:iron:17200,resources:food:4300,resources:coin:4300,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:18300,resources:stone:18300,resources:iron:18300,resources:food:4500,resources:coin:4500,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:19400,resources:stone:19400,resources:iron:19400,resources:food:4800,resources:coin:4800,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:20500,resources:stone:20500,resources:iron:20500,resources:food:5100,resources:coin:5100,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:21600,resources:stone:21600,resources:iron:21600,resources:food:5400,resources:coin:5400,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:22900,resources:stone:22900,resources:iron:22900,resources:food:5700,resources:coin:5700,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:23600,resources:stone:23600,resources:iron:23600,resources:food:5900,resources:coin:5900,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:24400,resources:stone:24400,resources:iron:24400,resources:food:6100,resources:coin:6100,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:25200,resources:stone:25200,resources:iron:25200,resources:food:6300,resources:coin:6300,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:25900,resources:stone:25900,resources:iron:25900,resources:food:6400,resources:coin:6400,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:26700,resources:stone:26700,resources:iron:26700,resources:food:6600,resources:coin:6600,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:27500,resources:stone:27500,resources:iron:27500,resources:food:6800,resources:coin:6800,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:28300,resources:stone:28300,resources:iron:28300,resources:food:7000,resources:coin:7000,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:29100,resources:stone:29100,resources:iron:29100,resources:food:7200,resources:coin:7200,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:29800,resources:stone:29800,resources:iron:29800,resources:food:7400,resources:coin:7400,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:30600,resources:stone:30600,resources:iron:30600,resources:food:7600,resources:coin:7600,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:31400,resources:stone:31400,resources:iron:31400,resources:food:7800,resources:coin:7800,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:32200,resources:stone:32200,resources:iron:32200,resources:food:8000,resources:coin:8000,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:33000,resources:stone:33000,resources:iron:33000,resources:food:8200,resources:coin:8200,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:33900,resources:stone:33900,resources:iron:33900,resources:food:8400,resources:coin:8400,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:34700,resources:stone:34700,resources:iron:34700,resources:food:8600,resources:coin:8600,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:35500,resources:stone:35500,resources:iron:35500,resources:food:8800,resources:coin:8800,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:36400,resources:stone:36400,resources:iron:36400,resources:food:9100,resources:coin:9100,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:37200,resources:stone:37200,resources:iron:37200,resources:food:9300,resources:coin:9300,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:38100,resources:stone:38100,resources:iron:38100,resources:food:9500,resources:coin:9500,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:38900,resources:stone:38900,resources:iron:38900,resources:food:9700,resources:coin:9700,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:39800,resources:stone:39800,resources:iron:39800,resources:food:9900,resources:coin:9900,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:41700,resources:stone:41700,resources:iron:41700,resources:food:10400,resources:coin:10400,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:42600,resources:stone:42600,resources:iron:42600,resources:food:10600,resources:coin:10600,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:43600,resources:stone:43600,resources:iron:43600,resources:food:10900,resources:coin:10900,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:44500,resources:stone:44500,resources:iron:44500,resources:food:11100,resources:coin:11100,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:45600,resources:stone:45600,resources:iron:45600,resources:food:11400,resources:coin:11400,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:46600,resources:stone:46600,resources:iron:46600,resources:food:11600,resources:coin:11600,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:47700,resources:stone:47700,resources:iron:47700,resources:food:11900,resources:coin:11900,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:48800,resources:stone:48800,resources:iron:48800,resources:food:12200,resources:coin:12200,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:49900,resources:stone:49900,resources:iron:49900,resources:food:12400,resources:coin:12400,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:51100,resources:stone:51100,resources:iron:51100,resources:food:12700,resources:coin:12700,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:52400,resources:stone:52400,resources:iron:52400,resources:food:13100,resources:coin:13100,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:53700,resources:stone:53700,resources:iron:53700,resources:food:13400,resources:coin:13400,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:55000,resources:stone:55000,resources:iron:55000,resources:food:13700,resources:coin:13700,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:56400,resources:stone:56400,resources:iron:56400,resources:food:14100,resources:coin:14100,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:59500,resources:stone:59500,resources:iron:59500,resources:food:14800,resources:coin:14800,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:61200,resources:stone:61200,resources:iron:61200,resources:food:15300,resources:coin:15300,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:63000,resources:stone:63000,resources:iron:63000,resources:food:15700,resources:coin:15700,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:64900,resources:stone:64900,resources:iron:64900,resources:food:16200,resources:coin:16200,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:66900,resources:stone:66900,resources:iron:66900,resources:food:16700,resources:coin:16700,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:69000,resources:stone:69000,resources:iron:69000,resources:food:17200,resources:coin:17200,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:71300,resources:stone:71300,resources:iron:71300,resources:food:17800,resources:coin:17800,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:73800,resources:stone:73800,resources:iron:73800,resources:food:18400,resources:coin:18400,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:76500,resources:stone:76500,resources:iron:76500,resources:food:19100,resources:coin:19100,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:79400,resources:stone:79400,resources:iron:79400,resources:food:19800,resources:coin:19800,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:82500,resources:stone:82500,resources:iron:82500,resources:food:20600,resources:coin:20600,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:85900,resources:stone:85900,resources:iron:85900,resources:food:21400,resources:coin:21400,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:89600,resources:stone:89600,resources:iron:89600,resources:food:22400,resources:coin:22400,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:93700,resources:stone:93700,resources:iron:93700,resources:food:23400,resources:coin:23400,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:98000,resources:stone:98000,resources:iron:98000,resources:food:24500,resources:coin:24500,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:102800,resources:stone:102800,resources:iron:102800,resources:food:25700,resources:coin:25700,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:108100,resources:stone:108100,resources:iron:108100,resources:food:27000,resources:coin:27000,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:113800,resources:stone:113800,resources:iron:113800,resources:food:28400,resources:coin:28400,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:120100,resources:stone:120100,resources:iron:120100,resources:food:30000,resources:coin:30000,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:127000,resources:stone:127000,resources:iron:127000,resources:food:31700,resources:coin:31700,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:134600,resources:stone:134600,resources:iron:134600,resources:food:33600,resources:coin:33600,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:142900,resources:stone:142900,resources:iron:142900,resources:food:35700,resources:coin:35700,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:152100,resources:stone:152100,resources:iron:152100,resources:food:38000,resources:coin:38000,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:162300,resources:stone:162300,resources:iron:162300,resources:food:40500,resources:coin:40500,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:173400,resources:stone:173400,resources:iron:173400,resources:food:43300,resources:coin:43300,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:185800,resources:stone:185800,resources:iron:185800,resources:food:46400,resources:coin:46400,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:199400,resources:stone:199400,resources:iron:199400,resources:food:49800,resources:coin:49800,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:214400,resources:stone:214400,resources:iron:214400,resources:food:53600,resources:coin:53600,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:231100,resources:stone:231100,resources:iron:231100,resources:food:57700,resources:coin:57700,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:249500,resources:stone:249500,resources:iron:249500,resources:food:62300,resources:coin:62300,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:269800,resources:stone:269800,resources:iron:269800,resources:food:67400,resources:coin:67400,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:292400,resources:stone:292400,resources:iron:292400,resources:food:73100,resources:coin:73100,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:317300,resources:stone:317300,resources:iron:317300,resources:food:79300,resources:coin:79300,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:345000,resources:stone:345000,resources:iron:345000,resources:food:86200,resources:coin:86200,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:375600,resources:stone:375600,resources:iron:375600,resources:food:93900,resources:coin:93900,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:409600,resources:stone:409600,resources:iron:409600,resources:food:102400,resources:coin:102400,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:447300,resources:stone:447300,resources:iron:447300,resources:food:111800,resources:coin:111800,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:489000,resources:stone:489000,resources:iron:489000,resources:food:122200,resources:coin:122200,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:535300,resources:stone:535300,resources:iron:535300,resources:food:133800,resources:coin:133800,resources:gem:50</t>
+  </si>
+  <si>
+    <t>resources:wood:586700,resources:stone:586700,resources:iron:586700,resources:food:146600,resources:coin:146600,resources:gem:50</t>
+  </si>
+  <si>
+    <t>resources:wood:1143700,resources:stone:1143700,resources:iron:1143700,resources:food:285900,resources:coin:285900,resources:gem:50</t>
+  </si>
+  <si>
+    <t>resources:wood:2081900,resources:stone:2081900,resources:iron:2081900,resources:food:520400,resources:coin:520400,resources:gem:100</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1037,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="346">
+  <cellStyleXfs count="348">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1052,6 +1052,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1419,7 +1421,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="346">
+  <cellStyles count="348">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1595,6 +1597,7 @@
     <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1763,6 +1766,7 @@
     <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2214,8 +2218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2551,7 +2555,7 @@
         <v>78</v>
       </c>
       <c r="B30" s="1">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>79</v>
@@ -2730,7 +2734,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>71</v>
@@ -2738,10 +2742,10 @@
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>229</v>
+        <v>133</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>230</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -2874,10 +2878,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2913,7 +2917,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -2927,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -2941,7 +2945,7 @@
         <v>479</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -2955,7 +2959,7 @@
         <v>655</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -2969,7 +2973,7 @@
         <v>839</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -2983,7 +2987,7 @@
         <v>1031</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -2997,7 +3001,7 @@
         <v>1231</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -3011,7 +3015,7 @@
         <v>1439</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -3025,7 +3029,7 @@
         <v>1655</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -3039,7 +3043,7 @@
         <v>1879</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -3053,7 +3057,7 @@
         <v>2111</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -3067,7 +3071,7 @@
         <v>2351</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -3081,7 +3085,7 @@
         <v>2612</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -3095,7 +3099,7 @@
         <v>2903</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -3109,7 +3113,7 @@
         <v>3225</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3123,7 +3127,7 @@
         <v>3584</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -3137,7 +3141,7 @@
         <v>3982</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -3151,7 +3155,7 @@
         <v>4424</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -3165,7 +3169,7 @@
         <v>4916</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3179,7 +3183,7 @@
         <v>5462</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3193,7 +3197,7 @@
         <v>6069</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3207,7 +3211,7 @@
         <v>6743</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3221,7 +3225,7 @@
         <v>7492</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3235,7 +3239,7 @@
         <v>8325</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3249,7 +3253,7 @@
         <v>9250</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3263,7 +3267,7 @@
         <v>10277</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -3277,7 +3281,7 @@
         <v>11419</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -3291,7 +3295,7 @@
         <v>12688</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -3305,7 +3309,7 @@
         <v>14098</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -3319,7 +3323,7 @@
         <v>15664</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -3333,7 +3337,7 @@
         <v>17405</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -3347,7 +3351,7 @@
         <v>19339</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -3361,7 +3365,7 @@
         <v>21488</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -3375,7 +3379,7 @@
         <v>23875</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -3389,7 +3393,7 @@
         <v>26528</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -3403,7 +3407,7 @@
         <v>29475</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -3417,7 +3421,7 @@
         <v>32751</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -3431,7 +3435,7 @@
         <v>36389</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3445,7 +3449,7 @@
         <v>40433</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3459,7 +3463,7 @@
         <v>44925</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3473,7 +3477,7 @@
         <v>49917</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3487,7 +3491,7 @@
         <v>55463</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3501,7 +3505,7 @@
         <v>61626</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3515,7 +3519,7 @@
         <v>68473</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3529,7 +3533,7 @@
         <v>76081</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3543,7 +3547,7 @@
         <v>84535</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3557,7 +3561,7 @@
         <v>93928</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3571,7 +3575,7 @@
         <v>104364</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3585,7 +3589,7 @@
         <v>115960</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3599,7 +3603,7 @@
         <v>128844</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3613,7 +3617,7 @@
         <v>143160</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3627,7 +3631,7 @@
         <v>159067</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3641,7 +3645,7 @@
         <v>176741</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3655,7 +3659,7 @@
         <v>196379</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3669,7 +3673,7 @@
         <v>218199</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -3683,7 +3687,7 @@
         <v>242443</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -3697,7 +3701,7 @@
         <v>269382</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -3711,7 +3715,7 @@
         <v>299313</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -3725,7 +3729,7 @@
         <v>332570</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -3739,7 +3743,7 @@
         <v>369522</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -3753,7 +3757,7 @@
         <v>410580</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -3767,7 +3771,7 @@
         <v>456200</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -3781,7 +3785,7 @@
         <v>506889</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -3795,7 +3799,7 @@
         <v>563210</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -3809,7 +3813,7 @@
         <v>625789</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -3823,7 +3827,7 @@
         <v>695321</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -3837,7 +3841,7 @@
         <v>772579</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -3851,7 +3855,7 @@
         <v>858421</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -3865,7 +3869,7 @@
         <v>953801</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -3879,7 +3883,7 @@
         <v>1059779</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -3893,7 +3897,7 @@
         <v>1177532</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -3907,7 +3911,7 @@
         <v>1308369</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -3921,7 +3925,7 @@
         <v>1453743</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -3935,7 +3939,7 @@
         <v>1615270</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -3949,7 +3953,7 @@
         <v>1794745</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -3963,7 +3967,7 @@
         <v>1994161</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -3977,7 +3981,7 @@
         <v>2215735</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -3991,7 +3995,7 @@
         <v>2461927</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -4005,7 +4009,7 @@
         <v>2735475</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -4019,7 +4023,7 @@
         <v>3039416</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -4033,7 +4037,7 @@
         <v>3377129</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -4047,7 +4051,7 @@
         <v>3752366</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -4061,7 +4065,7 @@
         <v>4169295</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -4075,7 +4079,7 @@
         <v>4632550</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -4089,7 +4093,7 @@
         <v>5147278</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -4103,7 +4107,7 @@
         <v>5719198</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -4117,7 +4121,7 @@
         <v>6354665</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -4131,7 +4135,7 @@
         <v>7060738</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -4145,7 +4149,7 @@
         <v>7845265</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -4159,7 +4163,7 @@
         <v>8716961</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -4173,7 +4177,7 @@
         <v>9685512</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -4186,8 +4190,8 @@
       <c r="C93" s="1">
         <v>10761680</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>219</v>
+      <c r="D93" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -4201,7 +4205,7 @@
         <v>11957423</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -4215,7 +4219,7 @@
         <v>13286025</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -4229,7 +4233,7 @@
         <v>14762250</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -4243,7 +4247,7 @@
         <v>16402500</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -4257,7 +4261,7 @@
         <v>18225000</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -4271,7 +4275,7 @@
         <v>20250000</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -4285,7 +4289,7 @@
         <v>24500000</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -4299,17 +4303,14 @@
         <v>32500000</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="20" customHeight="1">
-      <c r="D102" s="8"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="20" customHeight="1">
+      <c r="D105" s="8"/>
     </row>
     <row r="106" spans="1:4" ht="20" customHeight="1">
       <c r="D106" s="8"/>
-    </row>
-    <row r="107" spans="1:4" ht="20" customHeight="1">
-      <c r="D107" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4657,7 +4658,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>235</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -4668,7 +4669,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>232</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -4679,7 +4680,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>233</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
@@ -4690,7 +4691,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>231</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
@@ -4701,7 +4702,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>234</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="0" windowWidth="33740" windowHeight="17320" tabRatio="616"/>
+    <workbookView xWindow="900" yWindow="880" windowWidth="33740" windowHeight="17320" tabRatio="616"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="238">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -889,6 +889,14 @@
   </si>
   <si>
     <t>resources:wood:2081900,resources:stone:2081900,resources:iron:2081900,resources:food:520400,resources:coin:520400,resources:gem:100</t>
+  </si>
+  <si>
+    <t>quitAllianceCoolingMinutes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出联盟冷却时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1037,7 +1045,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="348">
+  <cellStyleXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1052,6 +1060,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1421,7 +1431,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="348">
+  <cellStyles count="350">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1598,6 +1608,7 @@
     <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1767,6 +1778,7 @@
     <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2216,10 +2228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2691,6 +2703,17 @@
       </c>
       <c r="C42" s="1" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="20" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" s="1">
+        <v>360</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="880" windowWidth="33740" windowHeight="17320" tabRatio="616"/>
+    <workbookView xWindow="1260" yWindow="1500" windowWidth="33740" windowHeight="17320" tabRatio="616"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -895,7 +895,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>退出联盟冷却时间</t>
+    <t>退出联盟冷却分钟数</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1500" windowWidth="33740" windowHeight="17320" tabRatio="616"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27860" windowHeight="17540" tabRatio="616"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="239">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -524,10 +524,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>helpDefence</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>speedupBuildingUpgrade</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -896,6 +892,14 @@
   </si>
   <si>
     <t>退出联盟冷却分钟数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxBlockedSize</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家最大黑名单数量</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2228,10 +2232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2707,13 +2711,24 @@
     </row>
     <row r="43" spans="1:3" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B43" s="1">
         <v>360</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="20" customHeight="1">
+      <c r="A44" s="1" t="s">
         <v>237</v>
+      </c>
+      <c r="B44" s="1">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2757,7 +2772,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>71</v>
@@ -2765,10 +2780,10 @@
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -2940,7 +2955,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -2954,7 +2969,7 @@
         <v>311</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -2968,7 +2983,7 @@
         <v>479</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -2982,7 +2997,7 @@
         <v>655</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -2996,7 +3011,7 @@
         <v>839</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -3010,7 +3025,7 @@
         <v>1031</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -3024,7 +3039,7 @@
         <v>1231</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -3038,7 +3053,7 @@
         <v>1439</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -3052,7 +3067,7 @@
         <v>1655</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -3066,7 +3081,7 @@
         <v>1879</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -3080,7 +3095,7 @@
         <v>2111</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -3094,7 +3109,7 @@
         <v>2351</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -3108,7 +3123,7 @@
         <v>2612</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -3122,7 +3137,7 @@
         <v>2903</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -3136,7 +3151,7 @@
         <v>3225</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3150,7 +3165,7 @@
         <v>3584</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -3164,7 +3179,7 @@
         <v>3982</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -3178,7 +3193,7 @@
         <v>4424</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -3192,7 +3207,7 @@
         <v>4916</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3206,7 +3221,7 @@
         <v>5462</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3220,7 +3235,7 @@
         <v>6069</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3234,7 +3249,7 @@
         <v>6743</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3248,7 +3263,7 @@
         <v>7492</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3262,7 +3277,7 @@
         <v>8325</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3276,7 +3291,7 @@
         <v>9250</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3290,7 +3305,7 @@
         <v>10277</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -3304,7 +3319,7 @@
         <v>11419</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -3318,7 +3333,7 @@
         <v>12688</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -3332,7 +3347,7 @@
         <v>14098</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -3346,7 +3361,7 @@
         <v>15664</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -3360,7 +3375,7 @@
         <v>17405</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -3374,7 +3389,7 @@
         <v>19339</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -3388,7 +3403,7 @@
         <v>21488</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -3402,7 +3417,7 @@
         <v>23875</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -3416,7 +3431,7 @@
         <v>26528</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -3430,7 +3445,7 @@
         <v>29475</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -3444,7 +3459,7 @@
         <v>32751</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -3458,7 +3473,7 @@
         <v>36389</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3472,7 +3487,7 @@
         <v>40433</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3486,7 +3501,7 @@
         <v>44925</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3500,7 +3515,7 @@
         <v>49917</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3514,7 +3529,7 @@
         <v>55463</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3528,7 +3543,7 @@
         <v>61626</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3542,7 +3557,7 @@
         <v>68473</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3556,7 +3571,7 @@
         <v>76081</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3570,7 +3585,7 @@
         <v>84535</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3584,7 +3599,7 @@
         <v>93928</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3598,7 +3613,7 @@
         <v>104364</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3612,7 +3627,7 @@
         <v>115960</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3626,7 +3641,7 @@
         <v>128844</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3640,7 +3655,7 @@
         <v>143160</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3654,7 +3669,7 @@
         <v>159067</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3668,7 +3683,7 @@
         <v>176741</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3682,7 +3697,7 @@
         <v>196379</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3696,7 +3711,7 @@
         <v>218199</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -3710,7 +3725,7 @@
         <v>242443</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -3724,7 +3739,7 @@
         <v>269382</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -3738,7 +3753,7 @@
         <v>299313</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -3752,7 +3767,7 @@
         <v>332570</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -3766,7 +3781,7 @@
         <v>369522</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -3780,7 +3795,7 @@
         <v>410580</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -3794,7 +3809,7 @@
         <v>456200</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -3808,7 +3823,7 @@
         <v>506889</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -3822,7 +3837,7 @@
         <v>563210</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -3836,7 +3851,7 @@
         <v>625789</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -3850,7 +3865,7 @@
         <v>695321</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -3864,7 +3879,7 @@
         <v>772579</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -3878,7 +3893,7 @@
         <v>858421</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -3892,7 +3907,7 @@
         <v>953801</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -3906,7 +3921,7 @@
         <v>1059779</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -3920,7 +3935,7 @@
         <v>1177532</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -3934,7 +3949,7 @@
         <v>1308369</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -3948,7 +3963,7 @@
         <v>1453743</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -3962,7 +3977,7 @@
         <v>1615270</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -3976,7 +3991,7 @@
         <v>1794745</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -3990,7 +4005,7 @@
         <v>1994161</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -4004,7 +4019,7 @@
         <v>2215735</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -4018,7 +4033,7 @@
         <v>2461927</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -4032,7 +4047,7 @@
         <v>2735475</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -4046,7 +4061,7 @@
         <v>3039416</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -4060,7 +4075,7 @@
         <v>3377129</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -4074,7 +4089,7 @@
         <v>3752366</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -4088,7 +4103,7 @@
         <v>4169295</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -4102,7 +4117,7 @@
         <v>4632550</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -4116,7 +4131,7 @@
         <v>5147278</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -4130,7 +4145,7 @@
         <v>5719198</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -4144,7 +4159,7 @@
         <v>6354665</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -4158,7 +4173,7 @@
         <v>7060738</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -4172,7 +4187,7 @@
         <v>7845265</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -4186,7 +4201,7 @@
         <v>8716961</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -4200,7 +4215,7 @@
         <v>9685512</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -4214,7 +4229,7 @@
         <v>10761680</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -4228,7 +4243,7 @@
         <v>11957423</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -4242,7 +4257,7 @@
         <v>13286025</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -4256,7 +4271,7 @@
         <v>14762250</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -4270,7 +4285,7 @@
         <v>16402500</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -4284,7 +4299,7 @@
         <v>18225000</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -4298,7 +4313,7 @@
         <v>20250000</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -4312,7 +4327,7 @@
         <v>24500000</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -4326,7 +4341,7 @@
         <v>32500000</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="20" customHeight="1">
@@ -4349,10 +4364,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4557,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
@@ -4582,7 +4597,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <v>10</v>
@@ -4596,7 +4611,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
         <v>10</v>
@@ -4616,22 +4631,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="1">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
-      <c r="B21" s="5"/>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="B20" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4663,13 +4664,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="F1" s="4"/>
     </row>
@@ -4681,7 +4682,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -4692,7 +4693,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -4703,7 +4704,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
@@ -4714,7 +4715,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
@@ -4725,7 +4726,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -2235,7 +2235,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2725,7 +2725,7 @@
         <v>237</v>
       </c>
       <c r="B44" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>238</v>

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27860" windowHeight="17540" tabRatio="616"/>
+    <workbookView xWindow="-60" yWindow="120" windowWidth="27860" windowHeight="17540" tabRatio="616"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="242">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -900,6 +900,17 @@
   </si>
   <si>
     <t>玩家最大黑名单数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>helpDefence</t>
+  </si>
+  <si>
+    <t>newbeeProtectMinutes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手玩家保护分钟数</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1049,7 +1060,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="350">
+  <cellStyleXfs count="358">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1064,6 +1075,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1435,7 +1454,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="350">
+  <cellStyles count="358">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1613,6 +1632,10 @@
     <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1783,6 +1806,10 @@
     <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2232,10 +2259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2729,6 +2756,17 @@
       </c>
       <c r="C44" s="1" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="20" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4320</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4364,10 +4402,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4563,7 +4601,7 @@
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>119</v>
+        <v>239</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
@@ -4577,7 +4615,7 @@
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="1">
         <v>13</v>
@@ -4586,18 +4624,18 @@
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" s="1">
         <v>14</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
         <v>10</v>
@@ -4605,13 +4643,13 @@
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" s="1">
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
         <v>10</v>
@@ -4619,7 +4657,7 @@
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
@@ -4631,8 +4669,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
-      <c r="B20" s="5"/>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="B21" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="120" windowWidth="27860" windowHeight="17540" tabRatio="616"/>
+    <workbookView xWindow="780" yWindow="560" windowWidth="25600" windowHeight="16060" tabRatio="616"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -2261,8 +2261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2719,7 +2719,7 @@
         <v>100</v>
       </c>
       <c r="B41" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>101</v>

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="560" windowWidth="25600" windowHeight="16060" tabRatio="616"/>
+    <workbookView xWindow="-860" yWindow="80" windowWidth="31820" windowHeight="16060" tabRatio="616" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -13,25 +13,35 @@
     <sheet name="playerLevel" sheetId="21" r:id="rId4"/>
     <sheet name="dailyTasks" sheetId="27" r:id="rId5"/>
     <sheet name="dailyTaskRewards" sheetId="28" r:id="rId6"/>
+    <sheet name="iapRewards" sheetId="29" r:id="rId7"/>
+    <sheet name="monthCard" sheetId="30" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
@@ -46,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="258">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -911,6 +921,70 @@
   </si>
   <si>
     <t>新手玩家保护分钟数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_gemNeed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_2:1,items:speedup_3:10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:casinoTokenClass_5:2,items:chest_3:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonExp_3:1,items:dragonChest_2:20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_3:20,items:chest_4:20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_3:10,items:gemClass_3:100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonfall.monthcard.100dragoncoins</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.9美刀月卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthcard_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_price</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_desc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_1:15,items:sweepScroll:10,items:stamina_1:1,items:speedup_2:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_productId</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_index</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_dailyRewards</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1060,7 +1134,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="358">
+  <cellStyleXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1423,8 +1497,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1453,8 +1529,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="358">
+  <cellStyles count="360">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1636,6 +1733,7 @@
     <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="354" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1810,6 +1908,7 @@
     <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2261,7 +2360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A19" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -4794,4 +4893,191 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="77.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8000</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>40000</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>80000</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>480000</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>960000</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="20" customHeight="1">
+      <c r="B21" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="77.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="37.5" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="64" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="10">
+        <v>9.99</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:13" ht="20" customHeight="1">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" ht="20" customHeight="1">
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="20" customHeight="1">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="20" customHeight="1">
+      <c r="C6" s="6"/>
+    </row>
+    <row r="21" spans="2:2" ht="20" customHeight="1">
+      <c r="B21" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-860" yWindow="80" windowWidth="31820" windowHeight="16060" tabRatio="616" activeTab="7"/>
+    <workbookView xWindow="1100" yWindow="180" windowWidth="25600" windowHeight="16060" tabRatio="616"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="262">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -948,10 +948,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>dragonfall.monthcard.100dragoncoins</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>9.9美刀月卡</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -985,6 +981,26 @@
   </si>
   <si>
     <t>STR_dailyRewards</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonfall.mc.100dragoncoins</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthCardTotalDays</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>月卡总天数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>iapGemEventActiveHours</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>累冲活动持续时间</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1134,7 +1150,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="360">
+  <cellStyleXfs count="364">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1149,6 +1165,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1551,7 +1571,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="360">
+  <cellStyles count="364">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1734,6 +1754,8 @@
     <cellStyle name="超链接" xfId="354" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="362" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1909,6 +1931,8 @@
     <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2358,10 +2382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2866,6 +2890,28 @@
       </c>
       <c r="C45" s="1" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="20" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="20" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4997,8 +5043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5013,22 +5059,22 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>256</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="64" customHeight="1">
@@ -5036,19 +5082,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D2" s="10">
         <v>9.99</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="12"/>

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -988,19 +988,19 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>月卡总天数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>monthCardTotalDays</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>月卡总天数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>iapGemEventActiveHours</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>累冲活动持续时间</t>
+    <t>iapGemEventActiveDays</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>累冲活动持续天数</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1150,7 +1150,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="364">
+  <cellStyleXfs count="372">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1165,6 +1165,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1571,7 +1579,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="364">
+  <cellStyles count="372">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1756,6 +1764,10 @@
     <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="370" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1933,6 +1945,10 @@
     <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2384,8 +2400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2894,13 +2910,13 @@
     </row>
     <row r="46" spans="1:3" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B46" s="1">
         <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -2401,7 +2401,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2913,7 +2913,7 @@
         <v>259</v>
       </c>
       <c r="B46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>258</v>

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -2401,7 +2401,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2913,7 +2913,7 @@
         <v>259</v>
       </c>
       <c r="B46" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>258</v>
@@ -2924,7 +2924,7 @@
         <v>260</v>
       </c>
       <c r="B47" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>261</v>

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="180" windowWidth="25600" windowHeight="16060" tabRatio="616"/>
+    <workbookView xWindow="1100" yWindow="180" windowWidth="25600" windowHeight="16060" tabRatio="616" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -984,24 +984,23 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>月卡总天数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthCardTotalDays</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>iapGemEventActiveDays</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>累冲活动持续天数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>dragonfall.mc.100dragoncoins</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>月卡总天数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>monthCardTotalDays</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>iapGemEventActiveDays</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>累冲活动持续天数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1150,7 +1149,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="372">
+  <cellStyleXfs count="374">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1165,6 +1164,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1579,7 +1580,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="372">
+  <cellStyles count="374">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1768,6 +1769,7 @@
     <cellStyle name="超链接" xfId="366" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="368" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="372" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1949,6 +1951,7 @@
     <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2400,7 +2403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -2910,24 +2913,24 @@
     </row>
     <row r="46" spans="1:3" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B46" s="1">
         <v>30</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B47" s="1">
         <v>7</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -5059,8 +5062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5101,7 +5104,7 @@
         <v>249</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D2" s="10">
         <v>9.99</v>

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="180" windowWidth="25600" windowHeight="16060" tabRatio="616" activeTab="7"/>
+    <workbookView xWindow="1580" yWindow="400" windowWidth="25600" windowHeight="16060" tabRatio="616" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="dailyTaskRewards" sheetId="28" r:id="rId6"/>
     <sheet name="iapRewards" sheetId="29" r:id="rId7"/>
     <sheet name="monthCard" sheetId="30" r:id="rId8"/>
+    <sheet name="switchServerLimit" sheetId="31" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
@@ -23,6 +24,7 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
@@ -30,6 +32,7 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
@@ -37,6 +40,7 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
@@ -44,6 +48,7 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -56,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="262">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -450,22 +455,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>switchServerGemUsed</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>迁移服务器消耗宝石数量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>switchServerLimitDays</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>迁移服务器限制天数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>switchServerFreeKeepLevel</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1001,6 +990,22 @@
   </si>
   <si>
     <t>dragonfall.mc.100dragoncoins</t>
+  </si>
+  <si>
+    <t>INT_limitDays</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_keepLevelMin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_keepLevelMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_needGem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1149,7 +1154,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="374">
+  <cellStyleXfs count="384">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1164,6 +1169,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1580,7 +1595,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="374">
+  <cellStyles count="384">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1770,6 +1785,11 @@
     <cellStyle name="超链接" xfId="368" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="370" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="382" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1952,6 +1972,11 @@
     <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2401,10 +2426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2850,7 +2875,7 @@
         <v>98</v>
       </c>
       <c r="B40" s="1">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>99</v>
@@ -2858,79 +2883,57 @@
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="B41" s="1">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>102</v>
+        <v>233</v>
       </c>
       <c r="B42" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>103</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B43" s="1">
-        <v>360</v>
+        <v>4320</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="B44" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B45" s="1">
-        <v>4320</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1">
-      <c r="A46" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B46" s="1">
-        <v>30</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1">
-      <c r="A47" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B47" s="1">
-        <v>7</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2974,7 +2977,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>71</v>
@@ -2982,10 +2985,10 @@
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -3157,7 +3160,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -3171,7 +3174,7 @@
         <v>311</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -3185,7 +3188,7 @@
         <v>479</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -3199,7 +3202,7 @@
         <v>655</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -3213,7 +3216,7 @@
         <v>839</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -3227,7 +3230,7 @@
         <v>1031</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -3241,7 +3244,7 @@
         <v>1231</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -3255,7 +3258,7 @@
         <v>1439</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -3269,7 +3272,7 @@
         <v>1655</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -3283,7 +3286,7 @@
         <v>1879</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -3297,7 +3300,7 @@
         <v>2111</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -3311,7 +3314,7 @@
         <v>2351</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -3325,7 +3328,7 @@
         <v>2612</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -3339,7 +3342,7 @@
         <v>2903</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -3353,7 +3356,7 @@
         <v>3225</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3367,7 +3370,7 @@
         <v>3584</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -3381,7 +3384,7 @@
         <v>3982</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -3395,7 +3398,7 @@
         <v>4424</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -3409,7 +3412,7 @@
         <v>4916</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3423,7 +3426,7 @@
         <v>5462</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3437,7 +3440,7 @@
         <v>6069</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3451,7 +3454,7 @@
         <v>6743</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3465,7 +3468,7 @@
         <v>7492</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3479,7 +3482,7 @@
         <v>8325</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3493,7 +3496,7 @@
         <v>9250</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3507,7 +3510,7 @@
         <v>10277</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -3521,7 +3524,7 @@
         <v>11419</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -3535,7 +3538,7 @@
         <v>12688</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -3549,7 +3552,7 @@
         <v>14098</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -3563,7 +3566,7 @@
         <v>15664</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -3577,7 +3580,7 @@
         <v>17405</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -3591,7 +3594,7 @@
         <v>19339</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -3605,7 +3608,7 @@
         <v>21488</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -3619,7 +3622,7 @@
         <v>23875</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -3633,7 +3636,7 @@
         <v>26528</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -3647,7 +3650,7 @@
         <v>29475</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -3661,7 +3664,7 @@
         <v>32751</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -3675,7 +3678,7 @@
         <v>36389</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3689,7 +3692,7 @@
         <v>40433</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3703,7 +3706,7 @@
         <v>44925</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3717,7 +3720,7 @@
         <v>49917</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3731,7 +3734,7 @@
         <v>55463</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3745,7 +3748,7 @@
         <v>61626</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3759,7 +3762,7 @@
         <v>68473</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3773,7 +3776,7 @@
         <v>76081</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3787,7 +3790,7 @@
         <v>84535</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3801,7 +3804,7 @@
         <v>93928</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3815,7 +3818,7 @@
         <v>104364</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3829,7 +3832,7 @@
         <v>115960</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3843,7 +3846,7 @@
         <v>128844</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3857,7 +3860,7 @@
         <v>143160</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3871,7 +3874,7 @@
         <v>159067</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3885,7 +3888,7 @@
         <v>176741</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3899,7 +3902,7 @@
         <v>196379</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3913,7 +3916,7 @@
         <v>218199</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -3927,7 +3930,7 @@
         <v>242443</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -3941,7 +3944,7 @@
         <v>269382</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -3955,7 +3958,7 @@
         <v>299313</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -3969,7 +3972,7 @@
         <v>332570</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -3983,7 +3986,7 @@
         <v>369522</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -3997,7 +4000,7 @@
         <v>410580</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -4011,7 +4014,7 @@
         <v>456200</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -4025,7 +4028,7 @@
         <v>506889</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -4039,7 +4042,7 @@
         <v>563210</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -4053,7 +4056,7 @@
         <v>625789</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -4067,7 +4070,7 @@
         <v>695321</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -4081,7 +4084,7 @@
         <v>772579</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -4095,7 +4098,7 @@
         <v>858421</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -4109,7 +4112,7 @@
         <v>953801</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -4123,7 +4126,7 @@
         <v>1059779</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -4137,7 +4140,7 @@
         <v>1177532</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -4151,7 +4154,7 @@
         <v>1308369</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -4165,7 +4168,7 @@
         <v>1453743</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -4179,7 +4182,7 @@
         <v>1615270</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -4193,7 +4196,7 @@
         <v>1794745</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -4207,7 +4210,7 @@
         <v>1994161</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -4221,7 +4224,7 @@
         <v>2215735</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -4235,7 +4238,7 @@
         <v>2461927</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -4249,7 +4252,7 @@
         <v>2735475</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -4263,7 +4266,7 @@
         <v>3039416</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -4277,7 +4280,7 @@
         <v>3377129</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -4291,7 +4294,7 @@
         <v>3752366</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -4305,7 +4308,7 @@
         <v>4169295</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -4319,7 +4322,7 @@
         <v>4632550</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -4333,7 +4336,7 @@
         <v>5147278</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -4347,7 +4350,7 @@
         <v>5719198</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -4361,7 +4364,7 @@
         <v>6354665</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -4375,7 +4378,7 @@
         <v>7060738</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -4389,7 +4392,7 @@
         <v>7845265</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -4403,7 +4406,7 @@
         <v>8716961</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -4417,7 +4420,7 @@
         <v>9685512</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -4431,7 +4434,7 @@
         <v>10761680</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -4445,7 +4448,7 @@
         <v>11957423</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -4459,7 +4462,7 @@
         <v>13286025</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -4473,7 +4476,7 @@
         <v>14762250</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -4487,7 +4490,7 @@
         <v>16402500</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -4501,7 +4504,7 @@
         <v>18225000</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -4515,7 +4518,7 @@
         <v>20250000</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -4529,7 +4532,7 @@
         <v>24500000</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -4543,7 +4546,7 @@
         <v>32500000</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="20" customHeight="1">
@@ -4585,19 +4588,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -4611,7 +4614,7 @@
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -4625,7 +4628,7 @@
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -4639,7 +4642,7 @@
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -4653,7 +4656,7 @@
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -4667,7 +4670,7 @@
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -4681,7 +4684,7 @@
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
@@ -4695,7 +4698,7 @@
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
@@ -4709,7 +4712,7 @@
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -4723,7 +4726,7 @@
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
@@ -4737,7 +4740,7 @@
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
@@ -4751,7 +4754,7 @@
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
@@ -4765,7 +4768,7 @@
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
@@ -4779,7 +4782,7 @@
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B15" s="1">
         <v>13</v>
@@ -4793,7 +4796,7 @@
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B16" s="1">
         <v>14</v>
@@ -4807,7 +4810,7 @@
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B17" s="1">
         <v>15</v>
@@ -4821,7 +4824,7 @@
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
@@ -4835,7 +4838,7 @@
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B19" s="1">
         <v>17</v>
@@ -4880,13 +4883,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F1" s="4"/>
     </row>
@@ -4898,7 +4901,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -4909,7 +4912,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -4920,7 +4923,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
@@ -4931,7 +4934,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
@@ -4942,7 +4945,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="20" customHeight="1">
@@ -4978,10 +4981,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>42</v>
@@ -4996,7 +4999,7 @@
         <v>8000</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -5007,7 +5010,7 @@
         <v>40000</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -5018,7 +5021,7 @@
         <v>80000</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
@@ -5029,7 +5032,7 @@
         <v>480000</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
@@ -5040,7 +5043,7 @@
         <v>960000</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="20" customHeight="1">
@@ -5062,7 +5065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -5078,22 +5081,22 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="D1" s="13" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>252</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="64" customHeight="1">
@@ -5101,19 +5104,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D2" s="10">
         <v>9.99</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="12"/>
@@ -5134,6 +5137,141 @@
     </row>
     <row r="21" spans="2:2" ht="20" customHeight="1">
       <c r="B21" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="35" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="1"/>
+    <col min="4" max="4" width="42.6640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="20" customHeight="1">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/Dragonfall/gameData/shared/PlayerInitData.xlsx
+++ b/Dragonfall/gameData/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="400" windowWidth="25600" windowHeight="16060" tabRatio="616" activeTab="8"/>
+    <workbookView xWindow="1580" yWindow="400" windowWidth="25600" windowHeight="16060" tabRatio="616"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="264">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -375,10 +375,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>activePlayerNeedHouses</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>定义活跃用户最后登录时间和当前时间的差值</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1005,6 +1001,16 @@
   </si>
   <si>
     <t>INT_needGem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>activePlayerNeedDays</t>
+  </si>
+  <si>
+    <t>zombiePlayerNeedDays</t>
+  </si>
+  <si>
+    <t>定义为僵尸玩家所需天数</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1154,7 +1160,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="384">
+  <cellStyleXfs count="388">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1169,6 +1175,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1595,7 +1605,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="384">
+  <cellStyles count="388">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1790,6 +1800,8 @@
     <cellStyle name="超链接" xfId="378" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="380" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="386" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1977,6 +1989,8 @@
     <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2426,10 +2440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2762,178 +2776,189 @@
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B30" s="1">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B30" s="1">
-        <v>168</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="1">
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" s="1">
         <v>100</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="1">
         <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" s="1">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="1">
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" s="1">
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="1">
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40" s="1">
         <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B41" s="1">
         <v>360</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B42" s="1">
         <v>15</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B43" s="1">
         <v>4320</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B44" s="1">
         <v>30</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B45" s="1">
         <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="20" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B46" s="1">
+        <v>60</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2977,7 +3002,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>71</v>
@@ -2985,10 +3010,10 @@
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -3160,7 +3185,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -3174,7 +3199,7 @@
         <v>311</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -3188,7 +3213,7 @@
         <v>479</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -3202,7 +3227,7 @@
         <v>655</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -3216,7 +3241,7 @@
         <v>839</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -3230,7 +3255,7 @@
         <v>1031</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -3244,7 +3269,7 @@
         <v>1231</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -3258,7 +3283,7 @@
         <v>1439</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -3272,7 +3297,7 @@
         <v>1655</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -3286,7 +3311,7 @@
         <v>1879</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -3300,7 +3325,7 @@
         <v>2111</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -3314,7 +3339,7 @@
         <v>2351</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -3328,7 +3353,7 @@
         <v>2612</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -3342,7 +3367,7 @@
         <v>2903</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -3356,7 +3381,7 @@
         <v>3225</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3370,7 +3395,7 @@
         <v>3584</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -3384,7 +3409,7 @@
         <v>3982</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -3398,7 +3423,7 @@
         <v>4424</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -3412,7 +3437,7 @@
         <v>4916</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3426,7 +3451,7 @@
         <v>5462</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3440,7 +3465,7 @@
         <v>6069</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3454,7 +3479,7 @@
         <v>6743</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3468,7 +3493,7 @@
         <v>7492</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3482,7 +3507,7 @@
         <v>8325</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3496,7 +3521,7 @@
         <v>9250</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3510,7 +3535,7 @@
         <v>10277</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -3524,7 +3549,7 @@
         <v>11419</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -3538,7 +3563,7 @@
         <v>12688</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -3552,7 +3577,7 @@
         <v>14098</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -3566,7 +3591,7 @@
         <v>15664</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -3580,7 +3605,7 @@
         <v>17405</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -3594,7 +3619,7 @@
         <v>19339</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -3608,7 +3633,7 @@
         <v>21488</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -3622,7 +3647,7 @@
         <v>23875</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -3636,7 +3661,7 @@
         <v>26528</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -3650,7 +3675,7 @@
         <v>29475</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -3664,7 +3689,7 @@
         <v>32751</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -3678,7 +3703,7 @@
         <v>36389</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3692,7 +3717,7 @@
         <v>40433</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3706,7 +3731,7 @@
         <v>44925</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3720,7 +3745,7 @@
         <v>49917</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3734,7 +3759,7 @@
         <v>55463</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3748,7 +3773,7 @@
         <v>61626</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3762,7 +3787,7 @@
         <v>68473</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3776,7 +3801,7 @@
         <v>76081</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3790,7 +3815,7 @@
         <v>84535</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3804,7 +3829,7 @@
         <v>93928</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3818,7 +3843,7 @@
         <v>104364</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3832,7 +3857,7 @@
         <v>115960</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3846,7 +3871,7 @@
         <v>128844</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3860,7 +3885,7 @@
         <v>143160</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3874,7 +3899,7 @@
         <v>159067</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3888,7 +3913,7 @@
         <v>176741</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3902,7 +3927,7 @@
         <v>196379</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3916,7 +3941,7 @@
         <v>218199</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -3930,7 +3955,7 @@
         <v>242443</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -3944,7 +3969,7 @@
         <v>269382</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -3958,7 +3983,7 @@
         <v>299313</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -3972,7 +3997,7 @@
         <v>332570</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -3986,7 +4011,7 @@
         <v>369522</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -4000,7 +4025,7 @@
         <v>410580</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -4014,7 +4039,7 @@
         <v>456200</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -4028,7 +4053,7 @@
         <v>506889</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -4042,7 +4067,7 @@
         <v>563210</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -4056,7 +4081,7 @@
         <v>625789</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -4070,7 +4095,7 @@
         <v>695321</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -4084,7 +4109,7 @@
         <v>772579</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -4098,7 +4123,7 @@
         <v>858421</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -4112,7 +4137,7 @@
         <v>953801</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -4126,7 +4151,7 @@
         <v>1059779</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -4140,7 +4165,7 @@
         <v>1177532</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -4154,7 +4179,7 @@
         <v>1308369</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -4168,7 +4193,7 @@
         <v>1453743</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -4182,7 +4207,7 @@
         <v>1615270</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -4196,7 +4221,7 @@
         <v>1794745</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -4210,7 +4235,7 @@
         <v>1994161</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -4224,7 +4249,7 @@
         <v>2215735</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -4238,7 +4263,7 @@
         <v>2461927</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -4252,7 +4277,7 @@
         <v>2735475</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -4266,7 +4291,7 @@
         <v>3039416</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -4280,7 +4305,7 @@
         <v>3377129</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -4294,7 +4319,7 @@
         <v>3752366</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -4308,7 +4333,7 @@
         <v>4169295</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -4322,7 +4347,7 @@
         <v>4632550</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -4336,7 +4361,7 @@
         <v>5147278</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -4350,7 +4375,7 @@
         <v>5719198</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -4364,7 +4389,7 @@
         <v>6354665</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -4378,7 +4403,7 @@
         <v>7060738</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -4392,7 +4417,7 @@
         <v>7845265</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -4406,7 +4431,7 @@
         <v>8716961</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -4420,7 +4445,7 @@
         <v>9685512</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -4434,7 +4459,7 @@
         <v>10761680</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -4448,7 +4473,7 @@
         <v>11957423</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -4462,7 +4487,7 @@
         <v>13286025</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -4476,7 +4501,7 @@
         <v>14762250</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -4490,7 +4515,7 @@
         <v>16402500</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -4504,7 +4529,7 @@
         <v>18225000</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -4518,7 +4543,7 @@
         <v>20250000</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -4532,7 +4557,7 @@
         <v>24500000</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -4546,7 +4571,7 @@
         <v>32500000</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="20" customHeight="1">
@@ -4588,19 +4613,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -4614,7 +4639,7 @@
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -4628,7 +4653,7 @@
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -4642,7 +4667,7 @@
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -4656,7 +4681,7 @@
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -4670,7 +4695,7 @@
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -4684,7 +4709,7 @@
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
@@ -4698,7 +4723,7 @@
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
@@ -4712,7 +4737,7 @@
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -4726,7 +4751,7 @@
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
@@ -4740,7 +4765,7 @@
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
@@ -4754,7 +4779,7 @@
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
@@ -4768,7 +4793,7 @@
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
@@ -4782,7 +4807,7 @@
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" s="1">
         <v>13</v>
@@ -4796,7 +4821,7 @@
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="1">
         <v>14</v>
@@ -4810,7 +4835,7 @@
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" s="1">
         <v>15</v>
@@ -4824,7 +4849,7 @@
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
@@ -4838,7 +4863,7 @@
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" s="1">
         <v>17</v>
@@ -4883,13 +4908,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="F1" s="4"/>
     </row>
@@ -4901,7 +4926,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -4912,7 +4937,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -4923,7 +4948,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
@@ -4934,7 +4959,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
@@ -4945,7 +4970,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="20" customHeight="1">
@@ -4981,10 +5006,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>42</v>
@@ -4999,7 +5024,7 @@
         <v>8000</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -5010,7 +5035,7 @@
         <v>40000</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -5021,7 +5046,7 @@
         <v>80000</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
@@ -5032,7 +5057,7 @@
         <v>480000</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
@@ -5043,7 +5068,7 @@
         <v>960000</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="20" customHeight="1">
@@ -5081,22 +5106,22 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>251</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="64" customHeight="1">
@@ -5104,19 +5129,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D2" s="10">
         <v>9.99</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="12"/>
@@ -5154,7 +5179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -5168,19 +5193,19 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="G1" s="4"/>
     </row>
